--- a/TS Jatai Working/Padam Input Templates/TS 4.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.5 Padam Input Template.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1B825B-9119-4D07-A32E-3402D5372806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="TS 4.5" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 4.5'!$B$1:$V$1235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 4.5'!$A$1:$XES$1235</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2811,7 +2810,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3540,13 +3539,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y1235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="H1200" sqref="H1200"/>
+      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -55368,57 +55367,58 @@
       <c r="Y1235" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:XES1235"/>
   <hyperlinks>
-    <hyperlink ref="N156" r:id="rId1" display="a@va@tatya#" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="N251" r:id="rId2" display="u@pa@vI@tinE$" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="N263" r:id="rId3" display="A@ta@tA@vinE$" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="N287" r:id="rId4" display="vA@ri@va@skRu@tAya#" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="N292" r:id="rId5" display="u@ccairGO#ShAya" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="N293" r:id="rId6" display="A@kra@ndaya#tE" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="N298" r:id="rId7" display="kRu@thsna@vI@tAya#" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="N305" r:id="rId8" display="ni@vyA@dhinE$" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="N306" r:id="rId9" display="A@vyA@dhinI#nAm" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="N311" r:id="rId10" display="ni@Sha@~gginE$" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="N316" r:id="rId11" display="ni@Sha@~gginE$" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="N317" r:id="rId12" display="i@Shu@dhi@matE$" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="N323" r:id="rId13" display="pa@ri@va~jca#tE" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="N328" r:id="rId14" display="ni@cE@ravE$" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="N329" r:id="rId15" display="pa@ri@ca@rAya#" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="N334" r:id="rId16" display="sRu@kA@viBya#H" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="V74" r:id="rId17" display="su@manA@ ti# su - manA$H" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="V103" r:id="rId18" display="sa@ha@sra@Sa iti# sahasra - SaH" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="V115" r:id="rId19" display="gO@pA iti# gO - pAH" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="V166" r:id="rId20" display="su@manA@ iti# su - manA$H" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="V226" r:id="rId21" display="sE@nA@nya# iti# sEnA - nyE$" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="V323" r:id="rId22" display="pa@ri@va~jca#ta@ iti# pari - va~jca#tE" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="V360" r:id="rId23" display="pra@ti@dadhA#nEBya@ iti# prati - dadhA#nEByaH" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="V408" r:id="rId24" display="vi@vidhya#ntIBya@ iti# vi - vidhya#ntIByaH" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="V516" r:id="rId25" display="pa@Su@pata#ya@ iti# paSu - pata#yE" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="V521" r:id="rId26" display="Si@ti@kaNThA@yEti# Siti - kaNThA#ya" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="V556" r:id="rId27" display="sa@M~MvRudhva#na@ iti# saM - vRudhva#nE" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="V589" r:id="rId28" display="pU@rva@jAyEti# pUrva - jAya#" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="V591" r:id="rId29" display="a@pa@ra@jAyEtya# para - jAya#" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="V676" r:id="rId30" display="i@Shu@dhi@mata@ itI#Shudhi - matE$" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="V686" r:id="rId31" display="su@dhanva#na@ iti# su - dhanva#nE" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="V736" r:id="rId32" display="vA@stu@pAyEti# vAstu - pAya#" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="V751" r:id="rId33" display="pa@Su@pata#ya@ iti# paSu - pata#yE" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="V774" r:id="rId34" display="Sa@MBava@ iti# SaM - BavE$" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="V776" r:id="rId35" display="ma@yO@Bava@ iti# mayaH - BavE$" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="V799" r:id="rId36" display="pra@tara#NA@yEti# pra - tara#NAya" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="V846" r:id="rId37" display="ga@hva@rE@ShThAyEti# gahvarE - sthAya#" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="V945" r:id="rId38" display="dvi@pada@ iti# dvi - padE$" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="V1031" r:id="rId39" display="pU@ru@Sha@Gna iti# pUruSha - GnE" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="V1049" r:id="rId40" display="dvi@barhA@ iti# dvi - barhA$H" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="V1052" r:id="rId41" display="ga@rtta@sada@miti# gartta - sada$m" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="V1090" r:id="rId42" display="su@manA@ iti# su - manA$H" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="V1095" r:id="rId43" display="ni@dhAyEti# ni - dhAya#" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="V1120" r:id="rId44" display="sa@ha@sra@dhEti# sahasra - dhA" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="V1131" r:id="rId45" display="sa@ha@sra@Sa iti# sahasra - SaH" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="V1148" r:id="rId46" display="Si@ti@kaNThA@ iti# Siti - kaNThA$H" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="V1153" r:id="rId47" display="Si@ti@kaNThA@ iti# Siti - kaNThA$H" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="V1169" r:id="rId48" display="vi@vidhya@ntIti# vi - vidhya#nti" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="V1175" r:id="rId49" display="pa@thi@rakSha#ya@ iti# pathi - rakSha#yaH" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="V1180" r:id="rId50" display="pra@cara@ntIti# pra - cara#nti" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="N156" r:id="rId1" display="a@va@tatya#"/>
+    <hyperlink ref="N251" r:id="rId2" display="u@pa@vI@tinE$"/>
+    <hyperlink ref="N263" r:id="rId3" display="A@ta@tA@vinE$"/>
+    <hyperlink ref="N287" r:id="rId4" display="vA@ri@va@skRu@tAya#"/>
+    <hyperlink ref="N292" r:id="rId5" display="u@ccairGO#ShAya"/>
+    <hyperlink ref="N293" r:id="rId6" display="A@kra@ndaya#tE"/>
+    <hyperlink ref="N298" r:id="rId7" display="kRu@thsna@vI@tAya#"/>
+    <hyperlink ref="N305" r:id="rId8" display="ni@vyA@dhinE$"/>
+    <hyperlink ref="N306" r:id="rId9" display="A@vyA@dhinI#nAm"/>
+    <hyperlink ref="N311" r:id="rId10" display="ni@Sha@~gginE$"/>
+    <hyperlink ref="N316" r:id="rId11" display="ni@Sha@~gginE$"/>
+    <hyperlink ref="N317" r:id="rId12" display="i@Shu@dhi@matE$"/>
+    <hyperlink ref="N323" r:id="rId13" display="pa@ri@va~jca#tE"/>
+    <hyperlink ref="N328" r:id="rId14" display="ni@cE@ravE$"/>
+    <hyperlink ref="N329" r:id="rId15" display="pa@ri@ca@rAya#"/>
+    <hyperlink ref="N334" r:id="rId16" display="sRu@kA@viBya#H"/>
+    <hyperlink ref="V74" r:id="rId17" display="su@manA@ ti# su - manA$H"/>
+    <hyperlink ref="V103" r:id="rId18" display="sa@ha@sra@Sa iti# sahasra - SaH"/>
+    <hyperlink ref="V115" r:id="rId19" display="gO@pA iti# gO - pAH"/>
+    <hyperlink ref="V166" r:id="rId20" display="su@manA@ iti# su - manA$H"/>
+    <hyperlink ref="V226" r:id="rId21" display="sE@nA@nya# iti# sEnA - nyE$"/>
+    <hyperlink ref="V323" r:id="rId22" display="pa@ri@va~jca#ta@ iti# pari - va~jca#tE"/>
+    <hyperlink ref="V360" r:id="rId23" display="pra@ti@dadhA#nEBya@ iti# prati - dadhA#nEByaH"/>
+    <hyperlink ref="V408" r:id="rId24" display="vi@vidhya#ntIBya@ iti# vi - vidhya#ntIByaH"/>
+    <hyperlink ref="V516" r:id="rId25" display="pa@Su@pata#ya@ iti# paSu - pata#yE"/>
+    <hyperlink ref="V521" r:id="rId26" display="Si@ti@kaNThA@yEti# Siti - kaNThA#ya"/>
+    <hyperlink ref="V556" r:id="rId27" display="sa@M~MvRudhva#na@ iti# saM - vRudhva#nE"/>
+    <hyperlink ref="V589" r:id="rId28" display="pU@rva@jAyEti# pUrva - jAya#"/>
+    <hyperlink ref="V591" r:id="rId29" display="a@pa@ra@jAyEtya# para - jAya#"/>
+    <hyperlink ref="V676" r:id="rId30" display="i@Shu@dhi@mata@ itI#Shudhi - matE$"/>
+    <hyperlink ref="V686" r:id="rId31" display="su@dhanva#na@ iti# su - dhanva#nE"/>
+    <hyperlink ref="V736" r:id="rId32" display="vA@stu@pAyEti# vAstu - pAya#"/>
+    <hyperlink ref="V751" r:id="rId33" display="pa@Su@pata#ya@ iti# paSu - pata#yE"/>
+    <hyperlink ref="V774" r:id="rId34" display="Sa@MBava@ iti# SaM - BavE$"/>
+    <hyperlink ref="V776" r:id="rId35" display="ma@yO@Bava@ iti# mayaH - BavE$"/>
+    <hyperlink ref="V799" r:id="rId36" display="pra@tara#NA@yEti# pra - tara#NAya"/>
+    <hyperlink ref="V846" r:id="rId37" display="ga@hva@rE@ShThAyEti# gahvarE - sthAya#"/>
+    <hyperlink ref="V945" r:id="rId38" display="dvi@pada@ iti# dvi - padE$"/>
+    <hyperlink ref="V1031" r:id="rId39" display="pU@ru@Sha@Gna iti# pUruSha - GnE"/>
+    <hyperlink ref="V1049" r:id="rId40" display="dvi@barhA@ iti# dvi - barhA$H"/>
+    <hyperlink ref="V1052" r:id="rId41" display="ga@rtta@sada@miti# gartta - sada$m"/>
+    <hyperlink ref="V1090" r:id="rId42" display="su@manA@ iti# su - manA$H"/>
+    <hyperlink ref="V1095" r:id="rId43" display="ni@dhAyEti# ni - dhAya#"/>
+    <hyperlink ref="V1120" r:id="rId44" display="sa@ha@sra@dhEti# sahasra - dhA"/>
+    <hyperlink ref="V1131" r:id="rId45" display="sa@ha@sra@Sa iti# sahasra - SaH"/>
+    <hyperlink ref="V1148" r:id="rId46" display="Si@ti@kaNThA@ iti# Siti - kaNThA$H"/>
+    <hyperlink ref="V1153" r:id="rId47" display="Si@ti@kaNThA@ iti# Siti - kaNThA$H"/>
+    <hyperlink ref="V1169" r:id="rId48" display="vi@vidhya@ntIti# vi - vidhya#nti"/>
+    <hyperlink ref="V1175" r:id="rId49" display="pa@thi@rakSha#ya@ iti# pathi - rakSha#yaH"/>
+    <hyperlink ref="V1180" r:id="rId50" display="pra@cara@ntIti# pra - cara#nti"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId51"/>

--- a/TS Jatai Working/Padam Input Templates/TS 4.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.5 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79645276-2BEA-4888-97E5-0E37E590C16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D8F3D9-D531-430F-AF56-19639C718510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3558,10 +3558,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y1235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="O152" sqref="O152"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -10973,7 +10973,7 @@
       <c r="X151" s="8"/>
       <c r="Y151" s="8"/>
     </row>
-    <row r="152" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B152" s="66" t="s">
         <v>913</v>
       </c>
@@ -11019,7 +11019,7 @@
       <c r="X152" s="8"/>
       <c r="Y152" s="8"/>
     </row>
-    <row r="153" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B153" s="66" t="s">
         <v>913</v>
       </c>
@@ -11064,7 +11064,7 @@
       <c r="X153" s="8"/>
       <c r="Y153" s="8"/>
     </row>
-    <row r="154" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B154" s="66" t="s">
         <v>913</v>
       </c>
@@ -11113,7 +11113,7 @@
       <c r="X154" s="8"/>
       <c r="Y154" s="8"/>
     </row>
-    <row r="155" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B155" s="66" t="s">
         <v>913</v>
       </c>
@@ -11162,7 +11162,7 @@
       <c r="X155" s="8"/>
       <c r="Y155" s="8"/>
     </row>
-    <row r="156" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B156" s="66" t="s">
         <v>913</v>
       </c>
@@ -11211,7 +11211,7 @@
       <c r="X156" s="8"/>
       <c r="Y156" s="8"/>
     </row>
-    <row r="157" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B157" s="66" t="s">
         <v>913</v>
       </c>
@@ -11256,7 +11256,7 @@
       <c r="X157" s="8"/>
       <c r="Y157" s="8"/>
     </row>
-    <row r="158" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158" s="66" t="s">
         <v>913</v>
       </c>
@@ -11301,7 +11301,7 @@
       <c r="X158" s="8"/>
       <c r="Y158" s="8"/>
     </row>
-    <row r="159" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B159" s="66" t="s">
         <v>913</v>
       </c>
@@ -11350,7 +11350,7 @@
       <c r="X159" s="8"/>
       <c r="Y159" s="8"/>
     </row>
-    <row r="160" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B160" s="66" t="s">
         <v>913</v>
       </c>
@@ -11401,7 +11401,7 @@
       <c r="X160" s="8"/>
       <c r="Y160" s="8"/>
     </row>
-    <row r="161" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B161" s="66" t="s">
         <v>913</v>
       </c>
@@ -11450,7 +11450,7 @@
       <c r="X161" s="8"/>
       <c r="Y161" s="8"/>
     </row>
-    <row r="162" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B162" s="66" t="s">
         <v>913</v>
       </c>
@@ -11495,7 +11495,7 @@
       <c r="X162" s="8"/>
       <c r="Y162" s="8"/>
     </row>
-    <row r="163" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B163" s="66" t="s">
         <v>913</v>
       </c>
@@ -11540,7 +11540,7 @@
       <c r="X163" s="8"/>
       <c r="Y163" s="8"/>
     </row>
-    <row r="164" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B164" s="66" t="s">
         <v>913</v>
       </c>
@@ -11585,7 +11585,7 @@
       <c r="X164" s="8"/>
       <c r="Y164" s="8"/>
     </row>
-    <row r="165" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B165" s="66" t="s">
         <v>913</v>
       </c>
@@ -11630,7 +11630,7 @@
       <c r="X165" s="8"/>
       <c r="Y165" s="8"/>
     </row>
-    <row r="166" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166" s="66" t="s">
         <v>913</v>
       </c>
@@ -11679,7 +11679,7 @@
       <c r="X166" s="8"/>
       <c r="Y166" s="8"/>
     </row>
-    <row r="167" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B167" s="66" t="s">
         <v>913</v>
       </c>
@@ -11728,7 +11728,7 @@
       <c r="X167" s="8"/>
       <c r="Y167" s="8"/>
     </row>
-    <row r="168" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B168" s="66" t="s">
         <v>913</v>
       </c>
@@ -11777,7 +11777,7 @@
       <c r="X168" s="8"/>
       <c r="Y168" s="8"/>
     </row>
-    <row r="169" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B169" s="66" t="s">
         <v>913</v>
       </c>
@@ -11822,7 +11822,7 @@
       <c r="X169" s="8"/>
       <c r="Y169" s="8"/>
     </row>
-    <row r="170" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B170" s="66" t="s">
         <v>913</v>
       </c>
@@ -11867,7 +11867,7 @@
       <c r="X170" s="8"/>
       <c r="Y170" s="8"/>
     </row>
-    <row r="171" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B171" s="66" t="s">
         <v>913</v>
       </c>
@@ -11916,7 +11916,7 @@
       <c r="X171" s="8"/>
       <c r="Y171" s="8"/>
     </row>
-    <row r="172" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B172" s="66" t="s">
         <v>913</v>
       </c>
@@ -11971,7 +11971,7 @@
       <c r="X172" s="8"/>
       <c r="Y172" s="8"/>
     </row>
-    <row r="173" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="66" t="s">
         <v>913</v>
       </c>
@@ -12020,7 +12020,7 @@
       <c r="X173" s="8"/>
       <c r="Y173" s="8"/>
     </row>
-    <row r="174" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="66" t="s">
         <v>913</v>
       </c>
@@ -12067,7 +12067,7 @@
       <c r="X174" s="8"/>
       <c r="Y174" s="8"/>
     </row>
-    <row r="175" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="66" t="s">
         <v>913</v>
       </c>
@@ -12116,7 +12116,7 @@
       <c r="X175" s="8"/>
       <c r="Y175" s="8"/>
     </row>
-    <row r="176" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="66" t="s">
         <v>913</v>
       </c>
@@ -12163,7 +12163,7 @@
       <c r="X176" s="8"/>
       <c r="Y176" s="8"/>
     </row>
-    <row r="177" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="66" t="s">
         <v>913</v>
       </c>
@@ -12210,7 +12210,7 @@
       <c r="X177" s="8"/>
       <c r="Y177" s="8"/>
     </row>
-    <row r="178" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="66" t="s">
         <v>913</v>
       </c>
@@ -12257,7 +12257,7 @@
       <c r="X178" s="8"/>
       <c r="Y178" s="8"/>
     </row>
-    <row r="179" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="66" t="s">
         <v>913</v>
       </c>
@@ -12310,7 +12310,7 @@
       <c r="X179" s="8"/>
       <c r="Y179" s="8"/>
     </row>
-    <row r="180" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B180" s="66" t="s">
         <v>913</v>
       </c>
@@ -12355,7 +12355,7 @@
       <c r="X180" s="8"/>
       <c r="Y180" s="8"/>
     </row>
-    <row r="181" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B181" s="66" t="s">
         <v>913</v>
       </c>
@@ -12400,7 +12400,7 @@
       <c r="X181" s="8"/>
       <c r="Y181" s="8"/>
     </row>
-    <row r="182" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182" s="66" t="s">
         <v>913</v>
       </c>
@@ -12445,7 +12445,7 @@
       <c r="X182" s="8"/>
       <c r="Y182" s="8"/>
     </row>
-    <row r="183" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B183" s="66" t="s">
         <v>913</v>
       </c>
@@ -12494,7 +12494,7 @@
       <c r="X183" s="8"/>
       <c r="Y183" s="8"/>
     </row>
-    <row r="184" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B184" s="66" t="s">
         <v>913</v>
       </c>
@@ -12539,7 +12539,7 @@
       <c r="X184" s="8"/>
       <c r="Y184" s="8"/>
     </row>
-    <row r="185" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B185" s="66" t="s">
         <v>913</v>
       </c>
@@ -12584,7 +12584,7 @@
       <c r="X185" s="8"/>
       <c r="Y185" s="8"/>
     </row>
-    <row r="186" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B186" s="66" t="s">
         <v>913</v>
       </c>
@@ -12629,7 +12629,7 @@
       <c r="X186" s="8"/>
       <c r="Y186" s="8"/>
     </row>
-    <row r="187" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B187" s="66" t="s">
         <v>913</v>
       </c>
@@ -12678,7 +12678,7 @@
       <c r="X187" s="8"/>
       <c r="Y187" s="8"/>
     </row>
-    <row r="188" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B188" s="66" t="s">
         <v>913</v>
       </c>
@@ -12723,7 +12723,7 @@
       <c r="X188" s="8"/>
       <c r="Y188" s="8"/>
     </row>
-    <row r="189" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B189" s="66" t="s">
         <v>913</v>
       </c>
@@ -12770,7 +12770,7 @@
       <c r="X189" s="8"/>
       <c r="Y189" s="8"/>
     </row>
-    <row r="190" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B190" s="66" t="s">
         <v>913</v>
       </c>
@@ -12815,7 +12815,7 @@
       <c r="X190" s="8"/>
       <c r="Y190" s="8"/>
     </row>
-    <row r="191" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B191" s="66" t="s">
         <v>913</v>
       </c>
@@ -12860,7 +12860,7 @@
       <c r="X191" s="8"/>
       <c r="Y191" s="8"/>
     </row>
-    <row r="192" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B192" s="66" t="s">
         <v>913</v>
       </c>
@@ -12905,7 +12905,7 @@
       <c r="X192" s="8"/>
       <c r="Y192" s="8"/>
     </row>
-    <row r="193" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B193" s="66" t="s">
         <v>913</v>
       </c>
@@ -12956,7 +12956,7 @@
       <c r="X193" s="8"/>
       <c r="Y193" s="8"/>
     </row>
-    <row r="194" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B194" s="66" t="s">
         <v>913</v>
       </c>
@@ -13005,7 +13005,7 @@
       <c r="X194" s="8"/>
       <c r="Y194" s="8"/>
     </row>
-    <row r="195" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B195" s="66" t="s">
         <v>913</v>
       </c>
@@ -13052,7 +13052,7 @@
       <c r="X195" s="8"/>
       <c r="Y195" s="8"/>
     </row>
-    <row r="196" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B196" s="66" t="s">
         <v>913</v>
       </c>
@@ -13099,7 +13099,7 @@
       <c r="X196" s="8"/>
       <c r="Y196" s="8"/>
     </row>
-    <row r="197" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B197" s="66" t="s">
         <v>913</v>
       </c>
@@ -13150,7 +13150,7 @@
       <c r="X197" s="8"/>
       <c r="Y197" s="8"/>
     </row>
-    <row r="198" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B198" s="66" t="s">
         <v>913</v>
       </c>
@@ -13197,7 +13197,7 @@
       <c r="X198" s="8"/>
       <c r="Y198" s="8"/>
     </row>
-    <row r="199" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B199" s="66" t="s">
         <v>913</v>
       </c>
@@ -13248,7 +13248,7 @@
       <c r="X199" s="8"/>
       <c r="Y199" s="8"/>
     </row>
-    <row r="200" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B200" s="66" t="s">
         <v>913</v>
       </c>
@@ -13299,7 +13299,7 @@
       <c r="X200" s="8"/>
       <c r="Y200" s="8"/>
     </row>
-    <row r="201" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B201" s="66" t="s">
         <v>913</v>
       </c>
@@ -13344,7 +13344,7 @@
       <c r="X201" s="8"/>
       <c r="Y201" s="8"/>
     </row>
-    <row r="202" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B202" s="66" t="s">
         <v>913</v>
       </c>
@@ -13389,7 +13389,7 @@
       <c r="X202" s="8"/>
       <c r="Y202" s="8"/>
     </row>
-    <row r="203" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B203" s="66" t="s">
         <v>913</v>
       </c>
@@ -13434,7 +13434,7 @@
       <c r="X203" s="8"/>
       <c r="Y203" s="8"/>
     </row>
-    <row r="204" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B204" s="66" t="s">
         <v>913</v>
       </c>
@@ -13479,7 +13479,7 @@
       <c r="X204" s="8"/>
       <c r="Y204" s="8"/>
     </row>
-    <row r="205" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B205" s="66" t="s">
         <v>913</v>
       </c>
@@ -13528,7 +13528,7 @@
       <c r="X205" s="8"/>
       <c r="Y205" s="8"/>
     </row>
-    <row r="206" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B206" s="66" t="s">
         <v>913</v>
       </c>
@@ -13573,7 +13573,7 @@
       <c r="X206" s="8"/>
       <c r="Y206" s="8"/>
     </row>
-    <row r="207" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B207" s="66" t="s">
         <v>913</v>
       </c>
@@ -13622,7 +13622,7 @@
       <c r="X207" s="8"/>
       <c r="Y207" s="8"/>
     </row>
-    <row r="208" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B208" s="66" t="s">
         <v>913</v>
       </c>
@@ -13668,7 +13668,7 @@
       <c r="X208" s="8"/>
       <c r="Y208" s="8"/>
     </row>
-    <row r="209" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B209" s="66" t="s">
         <v>913</v>
       </c>
@@ -13713,7 +13713,7 @@
       <c r="X209" s="8"/>
       <c r="Y209" s="8"/>
     </row>
-    <row r="210" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B210" s="66" t="s">
         <v>913</v>
       </c>
@@ -13758,7 +13758,7 @@
       <c r="X210" s="8"/>
       <c r="Y210" s="8"/>
     </row>
-    <row r="211" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B211" s="66" t="s">
         <v>913</v>
       </c>
@@ -13803,7 +13803,7 @@
       <c r="X211" s="8"/>
       <c r="Y211" s="8"/>
     </row>
-    <row r="212" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B212" s="66" t="s">
         <v>913</v>
       </c>
@@ -13848,7 +13848,7 @@
       <c r="X212" s="8"/>
       <c r="Y212" s="8"/>
     </row>
-    <row r="213" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B213" s="66" t="s">
         <v>913</v>
       </c>
@@ -13893,7 +13893,7 @@
       <c r="X213" s="8"/>
       <c r="Y213" s="8"/>
     </row>
-    <row r="214" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214" s="66" t="s">
         <v>913</v>
       </c>
@@ -13942,7 +13942,7 @@
       <c r="X214" s="8"/>
       <c r="Y214" s="8"/>
     </row>
-    <row r="215" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B215" s="66" t="s">
         <v>913</v>
       </c>
@@ -13997,7 +13997,7 @@
       <c r="X215" s="8"/>
       <c r="Y215" s="8"/>
     </row>
-    <row r="216" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B216" s="66" t="s">
         <v>913</v>
       </c>
@@ -14048,7 +14048,7 @@
       <c r="X216" s="8"/>
       <c r="Y216" s="8"/>
     </row>
-    <row r="217" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B217" s="66" t="s">
         <v>913</v>
       </c>
@@ -14099,7 +14099,7 @@
       <c r="X217" s="8"/>
       <c r="Y217" s="8"/>
     </row>
-    <row r="218" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B218" s="66" t="s">
         <v>913</v>
       </c>
@@ -14146,7 +14146,7 @@
       <c r="X218" s="8"/>
       <c r="Y218" s="8"/>
     </row>
-    <row r="219" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B219" s="66" t="s">
         <v>913</v>
       </c>
@@ -14193,7 +14193,7 @@
       <c r="X219" s="8"/>
       <c r="Y219" s="8"/>
     </row>
-    <row r="220" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B220" s="66" t="s">
         <v>913</v>
       </c>
@@ -14240,7 +14240,7 @@
       <c r="X220" s="8"/>
       <c r="Y220" s="8"/>
     </row>
-    <row r="221" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B221" s="66" t="s">
         <v>913</v>
       </c>
@@ -14287,7 +14287,7 @@
       <c r="X221" s="8"/>
       <c r="Y221" s="8"/>
     </row>
-    <row r="222" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B222" s="66" t="s">
         <v>913</v>
       </c>
@@ -14332,7 +14332,7 @@
       <c r="X222" s="8"/>
       <c r="Y222" s="8"/>
     </row>
-    <row r="223" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:25" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B223" s="66" t="s">
         <v>913</v>
       </c>
@@ -53229,7 +53229,7 @@
       <c r="X1179" s="8"/>
       <c r="Y1179" s="8"/>
     </row>
-    <row r="1180" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1180" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1180" s="25"/>
       <c r="F1180" s="25"/>
       <c r="G1180" s="25"/>
@@ -53270,7 +53270,7 @@
       <c r="X1180" s="8"/>
       <c r="Y1180" s="8"/>
     </row>
-    <row r="1181" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1181" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1181" s="25"/>
       <c r="F1181" s="25"/>
       <c r="G1181" s="25"/>
@@ -53312,7 +53312,7 @@
       <c r="X1181" s="8"/>
       <c r="Y1181" s="8"/>
     </row>
-    <row r="1182" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1182" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1182" s="25"/>
       <c r="F1182" s="25"/>
       <c r="G1182" s="25"/>
@@ -53356,7 +53356,7 @@
       <c r="X1182" s="8"/>
       <c r="Y1182" s="8"/>
     </row>
-    <row r="1183" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1183" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1183" s="25"/>
       <c r="F1183" s="25"/>
       <c r="G1183" s="25"/>
@@ -53396,7 +53396,7 @@
       <c r="X1183" s="8"/>
       <c r="Y1183" s="8"/>
     </row>
-    <row r="1184" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1184" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1184" s="25"/>
       <c r="F1184" s="25"/>
       <c r="G1184" s="25"/>
@@ -53436,7 +53436,7 @@
       <c r="X1184" s="8"/>
       <c r="Y1184" s="8"/>
     </row>
-    <row r="1185" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1185" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1185" s="25"/>
       <c r="F1185" s="25"/>
       <c r="G1185" s="25"/>
@@ -53476,7 +53476,7 @@
       <c r="X1185" s="8"/>
       <c r="Y1185" s="8"/>
     </row>
-    <row r="1186" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1186" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1186" s="25"/>
       <c r="F1186" s="25"/>
       <c r="G1186" s="25"/>
@@ -53515,7 +53515,7 @@
       <c r="X1186" s="8"/>
       <c r="Y1186" s="8"/>
     </row>
-    <row r="1187" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1187" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1187" s="25"/>
       <c r="F1187" s="25"/>
       <c r="G1187" s="25"/>
@@ -53554,7 +53554,7 @@
       <c r="X1187" s="8"/>
       <c r="Y1187" s="8"/>
     </row>
-    <row r="1188" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1188" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1188" s="25"/>
       <c r="F1188" s="25"/>
       <c r="G1188" s="25"/>
@@ -53593,7 +53593,7 @@
       <c r="X1188" s="8"/>
       <c r="Y1188" s="8"/>
     </row>
-    <row r="1189" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1189" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1189" s="25"/>
       <c r="F1189" s="25"/>
       <c r="G1189" s="25"/>
@@ -53630,7 +53630,7 @@
       <c r="X1189" s="8"/>
       <c r="Y1189" s="8"/>
     </row>
-    <row r="1190" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1190" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1190" s="25"/>
       <c r="F1190" s="25"/>
       <c r="G1190" s="25"/>
@@ -53674,7 +53674,7 @@
       <c r="X1190" s="8"/>
       <c r="Y1190" s="8"/>
     </row>
-    <row r="1191" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1191" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1191" s="25"/>
       <c r="F1191" s="25"/>
       <c r="G1191" s="25"/>
@@ -53711,7 +53711,7 @@
       <c r="X1191" s="8"/>
       <c r="Y1191" s="8"/>
     </row>
-    <row r="1192" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1192" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1192" s="25"/>
       <c r="F1192" s="25"/>
       <c r="G1192" s="25"/>
@@ -53753,7 +53753,7 @@
       <c r="X1192" s="8"/>
       <c r="Y1192" s="8"/>
     </row>
-    <row r="1193" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1193" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1193" s="25"/>
       <c r="F1193" s="25"/>
       <c r="G1193" s="25"/>
@@ -53793,7 +53793,7 @@
       <c r="X1193" s="8"/>
       <c r="Y1193" s="8"/>
     </row>
-    <row r="1194" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1194" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1194" s="25"/>
       <c r="F1194" s="25"/>
       <c r="G1194" s="25"/>
@@ -53830,7 +53830,7 @@
       <c r="X1194" s="8"/>
       <c r="Y1194" s="8"/>
     </row>
-    <row r="1195" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1195" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1195" s="25"/>
       <c r="F1195" s="25"/>
       <c r="G1195" s="25"/>
@@ -53871,7 +53871,7 @@
       <c r="X1195" s="8"/>
       <c r="Y1195" s="8"/>
     </row>
-    <row r="1196" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1196" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1196" s="25"/>
       <c r="F1196" s="25"/>
       <c r="G1196" s="25"/>
@@ -53908,7 +53908,7 @@
       <c r="X1196" s="8"/>
       <c r="Y1196" s="8"/>
     </row>
-    <row r="1197" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1197" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1197" s="25"/>
       <c r="F1197" s="25"/>
       <c r="G1197" s="25"/>
@@ -53945,7 +53945,7 @@
       <c r="X1197" s="8"/>
       <c r="Y1197" s="8"/>
     </row>
-    <row r="1198" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1198" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1198" s="25"/>
       <c r="F1198" s="25"/>
       <c r="G1198" s="25"/>
@@ -53982,7 +53982,7 @@
       <c r="X1198" s="8"/>
       <c r="Y1198" s="8"/>
     </row>
-    <row r="1199" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1199" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1199" s="25"/>
       <c r="F1199" s="25"/>
       <c r="G1199" s="25"/>
@@ -54019,7 +54019,7 @@
       <c r="X1199" s="8"/>
       <c r="Y1199" s="8"/>
     </row>
-    <row r="1200" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1200" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1200" s="25"/>
       <c r="F1200" s="25"/>
       <c r="G1200" s="25"/>
@@ -54058,7 +54058,7 @@
       <c r="X1200" s="8"/>
       <c r="Y1200" s="8"/>
     </row>
-    <row r="1201" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1201" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1201" s="25"/>
       <c r="F1201" s="25"/>
       <c r="G1201" s="25"/>
@@ -54097,7 +54097,7 @@
       <c r="X1201" s="8"/>
       <c r="Y1201" s="8"/>
     </row>
-    <row r="1202" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1202" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1202" s="25"/>
       <c r="F1202" s="25"/>
       <c r="G1202" s="25"/>
@@ -54136,7 +54136,7 @@
       <c r="X1202" s="8"/>
       <c r="Y1202" s="8"/>
     </row>
-    <row r="1203" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1203" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1203" s="25"/>
       <c r="F1203" s="25"/>
       <c r="G1203" s="25"/>
@@ -54175,7 +54175,7 @@
       <c r="X1203" s="8"/>
       <c r="Y1203" s="8"/>
     </row>
-    <row r="1204" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1204" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1204" s="25"/>
       <c r="F1204" s="25"/>
       <c r="G1204" s="25"/>
@@ -54214,7 +54214,7 @@
       <c r="X1204" s="8"/>
       <c r="Y1204" s="8"/>
     </row>
-    <row r="1205" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1205" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1205" s="25"/>
       <c r="F1205" s="25"/>
       <c r="G1205" s="25"/>
@@ -54251,7 +54251,7 @@
       <c r="X1205" s="8"/>
       <c r="Y1205" s="8"/>
     </row>
-    <row r="1206" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1206" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1206" s="25"/>
       <c r="F1206" s="25"/>
       <c r="G1206" s="25"/>
@@ -54289,7 +54289,7 @@
       <c r="X1206" s="8"/>
       <c r="Y1206" s="8"/>
     </row>
-    <row r="1207" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1207" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1207" s="25"/>
       <c r="F1207" s="25"/>
       <c r="G1207" s="25"/>
@@ -54327,7 +54327,7 @@
       <c r="X1207" s="8"/>
       <c r="Y1207" s="8"/>
     </row>
-    <row r="1208" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1208" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1208" s="25"/>
       <c r="F1208" s="25"/>
       <c r="G1208" s="25"/>
@@ -54365,7 +54365,7 @@
       <c r="X1208" s="8"/>
       <c r="Y1208" s="8"/>
     </row>
-    <row r="1209" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1209" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1209" s="25"/>
       <c r="F1209" s="25"/>
       <c r="G1209" s="25"/>
@@ -54403,7 +54403,7 @@
       <c r="X1209" s="8"/>
       <c r="Y1209" s="8"/>
     </row>
-    <row r="1210" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1210" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1210" s="25"/>
       <c r="F1210" s="25"/>
       <c r="G1210" s="25"/>
@@ -54441,7 +54441,7 @@
       <c r="X1210" s="8"/>
       <c r="Y1210" s="8"/>
     </row>
-    <row r="1211" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1211" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1211" s="25"/>
       <c r="F1211" s="25"/>
       <c r="G1211" s="25"/>
@@ -54479,7 +54479,7 @@
       <c r="X1211" s="8"/>
       <c r="Y1211" s="8"/>
     </row>
-    <row r="1212" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1212" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1212" s="25"/>
       <c r="F1212" s="25"/>
       <c r="G1212" s="25"/>
@@ -54517,7 +54517,7 @@
       <c r="X1212" s="8"/>
       <c r="Y1212" s="8"/>
     </row>
-    <row r="1213" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1213" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1213" s="25"/>
       <c r="F1213" s="25"/>
       <c r="G1213" s="25"/>
@@ -54555,7 +54555,7 @@
       <c r="X1213" s="8"/>
       <c r="Y1213" s="8"/>
     </row>
-    <row r="1214" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1214" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1214" s="25"/>
       <c r="F1214" s="25"/>
       <c r="G1214" s="25"/>
@@ -54593,7 +54593,7 @@
       <c r="X1214" s="8"/>
       <c r="Y1214" s="8"/>
     </row>
-    <row r="1215" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1215" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1215" s="25"/>
       <c r="F1215" s="25"/>
       <c r="G1215" s="25"/>
@@ -54631,7 +54631,7 @@
       <c r="X1215" s="8"/>
       <c r="Y1215" s="8"/>
     </row>
-    <row r="1216" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1216" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1216" s="25"/>
       <c r="F1216" s="25"/>
       <c r="G1216" s="25"/>
@@ -54669,7 +54669,7 @@
       <c r="X1216" s="8"/>
       <c r="Y1216" s="8"/>
     </row>
-    <row r="1217" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1217" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1217" s="25"/>
       <c r="F1217" s="25"/>
       <c r="G1217" s="25"/>
@@ -54706,7 +54706,7 @@
       <c r="X1217" s="8"/>
       <c r="Y1217" s="8"/>
     </row>
-    <row r="1218" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1218" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1218" s="25"/>
       <c r="F1218" s="25"/>
       <c r="G1218" s="25"/>
@@ -54743,7 +54743,7 @@
       <c r="X1218" s="8"/>
       <c r="Y1218" s="8"/>
     </row>
-    <row r="1219" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1219" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1219" s="25"/>
       <c r="F1219" s="25"/>
       <c r="G1219" s="25"/>
@@ -54780,7 +54780,7 @@
       <c r="X1219" s="8"/>
       <c r="Y1219" s="8"/>
     </row>
-    <row r="1220" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1220" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1220" s="25"/>
       <c r="F1220" s="25"/>
       <c r="G1220" s="25"/>
@@ -54817,7 +54817,7 @@
       <c r="X1220" s="8"/>
       <c r="Y1220" s="8"/>
     </row>
-    <row r="1221" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1221" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1221" s="25"/>
       <c r="F1221" s="25"/>
       <c r="G1221" s="25"/>
@@ -54854,7 +54854,7 @@
       <c r="X1221" s="8"/>
       <c r="Y1221" s="8"/>
     </row>
-    <row r="1222" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1222" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1222" s="25"/>
       <c r="F1222" s="25"/>
       <c r="G1222" s="25"/>
@@ -54891,7 +54891,7 @@
       <c r="X1222" s="8"/>
       <c r="Y1222" s="8"/>
     </row>
-    <row r="1223" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1223" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1223" s="25"/>
       <c r="F1223" s="25"/>
       <c r="G1223" s="25"/>
@@ -54928,7 +54928,7 @@
       <c r="X1223" s="8"/>
       <c r="Y1223" s="8"/>
     </row>
-    <row r="1224" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1224" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1224" s="25"/>
       <c r="F1224" s="25"/>
       <c r="G1224" s="25"/>
@@ -54965,7 +54965,7 @@
       <c r="X1224" s="8"/>
       <c r="Y1224" s="8"/>
     </row>
-    <row r="1225" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1225" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1225" s="25"/>
       <c r="F1225" s="25"/>
       <c r="G1225" s="25"/>
@@ -55002,7 +55002,7 @@
       <c r="X1225" s="8"/>
       <c r="Y1225" s="8"/>
     </row>
-    <row r="1226" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1226" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1226" s="25"/>
       <c r="F1226" s="25"/>
       <c r="G1226" s="25"/>
@@ -55039,7 +55039,7 @@
       <c r="X1226" s="8"/>
       <c r="Y1226" s="8"/>
     </row>
-    <row r="1227" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1227" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1227" s="25"/>
       <c r="F1227" s="25"/>
       <c r="G1227" s="25"/>
@@ -55076,7 +55076,7 @@
       <c r="X1227" s="8"/>
       <c r="Y1227" s="8"/>
     </row>
-    <row r="1228" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1228" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1228" s="25"/>
       <c r="F1228" s="25"/>
       <c r="G1228" s="25"/>
@@ -55113,7 +55113,7 @@
       <c r="X1228" s="8"/>
       <c r="Y1228" s="8"/>
     </row>
-    <row r="1229" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1229" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1229" s="25"/>
       <c r="F1229" s="25"/>
       <c r="G1229" s="25"/>
@@ -55150,7 +55150,7 @@
       <c r="X1229" s="8"/>
       <c r="Y1229" s="8"/>
     </row>
-    <row r="1230" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1230" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1230" s="25"/>
       <c r="F1230" s="25"/>
       <c r="G1230" s="25"/>
@@ -55188,7 +55188,7 @@
       <c r="X1230" s="8"/>
       <c r="Y1230" s="8"/>
     </row>
-    <row r="1231" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1231" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1231" s="25"/>
       <c r="F1231" s="25"/>
       <c r="G1231" s="25"/>
@@ -55226,7 +55226,7 @@
       <c r="X1231" s="8"/>
       <c r="Y1231" s="8"/>
     </row>
-    <row r="1232" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1232" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1232" s="25"/>
       <c r="F1232" s="25"/>
       <c r="G1232" s="25"/>
@@ -55264,7 +55264,7 @@
       <c r="X1232" s="8"/>
       <c r="Y1232" s="8"/>
     </row>
-    <row r="1233" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1233" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1233" s="25"/>
       <c r="F1233" s="25"/>
       <c r="G1233" s="25"/>
@@ -55302,7 +55302,7 @@
       <c r="X1233" s="8"/>
       <c r="Y1233" s="8"/>
     </row>
-    <row r="1234" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1234" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1234" s="25"/>
       <c r="F1234" s="25"/>
       <c r="G1234" s="25"/>
@@ -55340,7 +55340,7 @@
       <c r="X1234" s="8"/>
       <c r="Y1234" s="8"/>
     </row>
-    <row r="1235" spans="5:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1235" spans="5:25" x14ac:dyDescent="0.25">
       <c r="E1235" s="25"/>
       <c r="F1235" s="25"/>
       <c r="G1235" s="25"/>
@@ -55386,7 +55386,7 @@
   <autoFilter ref="B1:V1235" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="7">
       <filters>
-        <filter val="4.5.1.4"/>
+        <filter val="4.5.11.2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/TS Jatai Working/Padam Input Templates/TS 4.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.5 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5AF16E-B927-4490-8767-A216623AE940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E0A4C4-3D80-418D-B6D9-F3B6EEB17157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2992,7 +2992,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3014,12 +3014,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3249,26 +3243,26 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3553,10 +3547,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A629" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1223" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="I633" sqref="I633:W633"/>
+      <selection pane="bottomLeft" activeCell="N1235" sqref="N1235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -29828,8 +29822,8 @@
       <c r="U633" s="80"/>
       <c r="V633" s="81"/>
       <c r="W633" s="82"/>
-      <c r="X633" s="8"/>
-      <c r="Y633" s="8"/>
+      <c r="X633" s="82"/>
+      <c r="Y633" s="82"/>
     </row>
     <row r="634" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D634" s="25"/>

--- a/TS Jatai Working/Padam Input Templates/TS 4.5 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.5 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F280E6A3-9797-4B9E-BFB6-E374A3105AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B05579-6A87-46F7-83BB-EF8CB53B33D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2274,15 +2274,6 @@
     <t>aqpaqguqramA#NAqyetya#pa - guqramA#NAya</t>
   </si>
   <si>
-    <t>aqBiqGnaqtaitya#Bi - Gnaqte</t>
-  </si>
-  <si>
-    <t>AqkKiqdaqtaityA$ - Kiqdaqte</t>
-  </si>
-  <si>
-    <t>praqkKiqdaqtaiti#pra - Kiqdaqte</t>
-  </si>
-  <si>
     <t>viqkShIqNaqkeByaq iti# vi - kShIqNaqkeBya#H</t>
   </si>
   <si>
@@ -2310,9 +2301,6 @@
     <t>anA#turaqmityanA$ - tuqraqm</t>
   </si>
   <si>
-    <t>AqyaqjaityA$ - yaqje</t>
-  </si>
-  <si>
     <t>praNI#tAqvitiq pra - nIqtauq</t>
   </si>
   <si>
@@ -2803,6 +2791,18 @@
   </si>
   <si>
     <t>satva#nAm</t>
+  </si>
+  <si>
+    <t>AqkKiqdaqta ityA$ - Kiqdaqte</t>
+  </si>
+  <si>
+    <t>aqBiqGnaqta itya#Bi - Gnaqte</t>
+  </si>
+  <si>
+    <t>praqkKiqdaqta iti# pra - Kiqdaqte</t>
+  </si>
+  <si>
+    <t>Aqyaqja ityA$ - yaqje</t>
   </si>
 </sst>
 </file>
@@ -3522,10 +3522,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1235"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1227" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A966" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A1235" sqref="A1235:XFD1235"/>
+      <selection pane="bottomLeft" activeCell="V975" sqref="V975"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4049,7 +4049,7 @@
         <v>11</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="T1" s="13" t="s">
         <v>19</v>
@@ -4058,23 +4058,23 @@
         <v>20</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="68" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="I2" s="36" t="s">
         <v>47</v>
@@ -4106,17 +4106,17 @@
     <row r="3" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="56" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="I3" s="36" t="s">
         <v>47</v>
@@ -4151,17 +4151,17 @@
     <row r="4" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="56" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="I4" s="36" t="s">
         <v>47</v>
@@ -4196,10 +4196,10 @@
     <row r="5" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="9"/>
@@ -4239,10 +4239,10 @@
     <row r="6" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="9"/>
@@ -4286,10 +4286,10 @@
     <row r="7" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="9"/>
@@ -4329,10 +4329,10 @@
     <row r="8" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="9"/>
@@ -4372,10 +4372,10 @@
     <row r="9" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="9"/>
@@ -4419,10 +4419,10 @@
     <row r="10" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="9"/>
@@ -4462,10 +4462,10 @@
     <row r="11" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="9"/>
@@ -4505,13 +4505,13 @@
     <row r="12" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -4545,17 +4545,17 @@
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
       <c r="U12" s="17" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="V12" s="40"/>
     </row>
     <row r="13" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="9"/>
@@ -4595,10 +4595,10 @@
     <row r="14" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="9"/>
@@ -4624,7 +4624,7 @@
         <v>13</v>
       </c>
       <c r="N14" s="41" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>0</v>
@@ -4642,10 +4642,10 @@
     <row r="15" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="9"/>
@@ -4685,10 +4685,10 @@
     <row r="16" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="9"/>
@@ -4728,10 +4728,10 @@
     <row r="17" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="9"/>
@@ -4775,10 +4775,10 @@
     <row r="18" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="9"/>
@@ -4818,10 +4818,10 @@
     <row r="19" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C19" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="9"/>
@@ -4861,10 +4861,10 @@
     <row r="20" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="9"/>
@@ -4904,10 +4904,10 @@
     <row r="21" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C21" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="9"/>
@@ -4951,10 +4951,10 @@
     <row r="22" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="9"/>
@@ -4994,10 +4994,10 @@
     <row r="23" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="9"/>
@@ -5037,10 +5037,10 @@
     <row r="24" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C24" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D24" s="24"/>
       <c r="E24" s="9"/>
@@ -5080,10 +5080,10 @@
     <row r="25" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C25" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="9"/>
@@ -5121,23 +5121,23 @@
       <c r="T25" s="17"/>
       <c r="U25" s="17"/>
       <c r="V25" s="40" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="26" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="68" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="I26" s="36" t="s">
         <v>47</v>
@@ -5172,17 +5172,17 @@
     <row r="27" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="56" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="I27" s="36" t="s">
         <v>47</v>
@@ -5216,14 +5216,14 @@
     </row>
     <row r="28" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D28" s="25"/>
       <c r="H28" s="56" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="I28" s="36" t="s">
         <v>47</v>
@@ -5261,17 +5261,17 @@
     <row r="29" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="56" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="I29" s="36" t="s">
         <v>47</v>
@@ -5306,17 +5306,17 @@
     <row r="30" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D30" s="24"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="56" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="I30" s="36" t="s">
         <v>47</v>
@@ -5351,17 +5351,17 @@
     <row r="31" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="56" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="I31" s="36" t="s">
         <v>47</v>
@@ -5396,17 +5396,17 @@
     <row r="32" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="56" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="I32" s="36" t="s">
         <v>47</v>
@@ -5441,10 +5441,10 @@
     <row r="33" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C33" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D33" s="24"/>
       <c r="E33" s="9"/>
@@ -5482,16 +5482,16 @@
       <c r="T33" s="17"/>
       <c r="U33" s="17"/>
       <c r="V33" s="40" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="34" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C34" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D34" s="24"/>
       <c r="E34" s="9"/>
@@ -5531,10 +5531,10 @@
     <row r="35" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C35" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="9"/>
@@ -5574,10 +5574,10 @@
     <row r="36" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C36" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="9"/>
@@ -5617,10 +5617,10 @@
     <row r="37" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C37" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D37" s="24"/>
       <c r="E37" s="9"/>
@@ -5660,10 +5660,10 @@
     <row r="38" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C38" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="9"/>
@@ -5703,10 +5703,10 @@
     <row r="39" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C39" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D39" s="24"/>
       <c r="E39" s="9"/>
@@ -5745,10 +5745,10 @@
     </row>
     <row r="40" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C40" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D40" s="25"/>
       <c r="I40" s="36" t="s">
@@ -5792,10 +5792,10 @@
     </row>
     <row r="41" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C41" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D41" s="25"/>
       <c r="I41" s="36" t="s">
@@ -5834,10 +5834,10 @@
     <row r="42" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C42" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D42" s="24"/>
       <c r="E42" s="9"/>
@@ -5877,10 +5877,10 @@
     <row r="43" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C43" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D43" s="24"/>
       <c r="E43" s="9"/>
@@ -5920,10 +5920,10 @@
     <row r="44" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C44" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D44" s="24"/>
       <c r="E44" s="9"/>
@@ -5967,10 +5967,10 @@
     <row r="45" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C45" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D45" s="24"/>
       <c r="E45" s="9"/>
@@ -6014,10 +6014,10 @@
     <row r="46" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C46" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="9"/>
@@ -6059,10 +6059,10 @@
     <row r="47" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C47" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="9"/>
@@ -6100,16 +6100,16 @@
       <c r="T47" s="17"/>
       <c r="U47" s="17"/>
       <c r="V47" s="40" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="48" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="9"/>
@@ -6149,10 +6149,10 @@
     <row r="49" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C49" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="9"/>
@@ -6191,10 +6191,10 @@
     </row>
     <row r="50" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C50" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D50" s="25"/>
       <c r="I50" s="36" t="s">
@@ -6236,10 +6236,10 @@
     </row>
     <row r="51" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C51" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D51" s="25"/>
       <c r="I51" s="36" t="s">
@@ -6278,10 +6278,10 @@
     <row r="52" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C52" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D52" s="24"/>
       <c r="E52" s="9"/>
@@ -6306,7 +6306,7 @@
         <v>51</v>
       </c>
       <c r="N52" s="16" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="O52" s="7"/>
       <c r="P52" s="39"/>
@@ -6319,10 +6319,10 @@
     </row>
     <row r="53" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C53" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D53" s="25"/>
       <c r="I53" s="36" t="s">
@@ -6355,10 +6355,10 @@
       <c r="S53" s="17"/>
       <c r="T53" s="17"/>
       <c r="U53" s="17" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="V53" s="40" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="W53" s="8"/>
       <c r="X53" s="8"/>
@@ -6367,10 +6367,10 @@
     <row r="54" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C54" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D54" s="24"/>
       <c r="E54" s="9"/>
@@ -6410,10 +6410,10 @@
     <row r="55" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C55" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D55" s="24"/>
       <c r="E55" s="9"/>
@@ -6457,10 +6457,10 @@
     <row r="56" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D56" s="24"/>
       <c r="E56" s="9"/>
@@ -6500,10 +6500,10 @@
     <row r="57" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C57" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D57" s="24"/>
       <c r="E57" s="9"/>
@@ -6543,10 +6543,10 @@
     <row r="58" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C58" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D58" s="24"/>
       <c r="E58" s="9"/>
@@ -6586,10 +6586,10 @@
     <row r="59" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C59" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D59" s="24"/>
       <c r="E59" s="9"/>
@@ -6629,10 +6629,10 @@
     <row r="60" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C60" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D60" s="24"/>
       <c r="E60" s="9"/>
@@ -6671,10 +6671,10 @@
     </row>
     <row r="61" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C61" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D61" s="25"/>
       <c r="I61" s="36" t="s">
@@ -6708,7 +6708,7 @@
       <c r="T61" s="17"/>
       <c r="U61" s="17"/>
       <c r="V61" s="40" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="W61" s="8"/>
       <c r="X61" s="8"/>
@@ -6716,10 +6716,10 @@
     </row>
     <row r="62" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C62" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D62" s="25"/>
       <c r="I62" s="36" t="s">
@@ -6757,10 +6757,10 @@
     </row>
     <row r="63" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C63" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D63" s="25"/>
       <c r="I63" s="36" t="s">
@@ -6799,10 +6799,10 @@
     <row r="64" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D64" s="24"/>
       <c r="E64" s="9"/>
@@ -6842,10 +6842,10 @@
     <row r="65" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C65" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D65" s="24"/>
       <c r="E65" s="9"/>
@@ -6885,13 +6885,13 @@
     <row r="66" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C66" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D66" s="69" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -6923,7 +6923,7 @@
       <c r="Q66" s="17"/>
       <c r="R66" s="17"/>
       <c r="S66" s="17" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="T66" s="17"/>
       <c r="U66" s="17"/>
@@ -6932,10 +6932,10 @@
     <row r="67" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C67" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D67" s="24"/>
       <c r="E67" s="9"/>
@@ -6973,16 +6973,16 @@
       <c r="T67" s="17"/>
       <c r="U67" s="17"/>
       <c r="V67" s="40" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="68" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C68" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D68" s="24"/>
       <c r="E68" s="9"/>
@@ -7022,10 +7022,10 @@
     <row r="69" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C69" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D69" s="24"/>
       <c r="E69" s="9"/>
@@ -7065,10 +7065,10 @@
     <row r="70" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C70" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D70" s="24"/>
       <c r="E70" s="9"/>
@@ -7107,10 +7107,10 @@
     </row>
     <row r="71" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C71" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D71" s="25"/>
       <c r="I71" s="36" t="s">
@@ -7148,10 +7148,10 @@
     </row>
     <row r="72" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C72" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D72" s="25"/>
       <c r="I72" s="36" t="s">
@@ -7190,10 +7190,10 @@
     <row r="73" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C73" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D73" s="24"/>
       <c r="E73" s="9"/>
@@ -7232,10 +7232,10 @@
     </row>
     <row r="74" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C74" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D74" s="25"/>
       <c r="I74" s="36" t="s">
@@ -7277,10 +7277,10 @@
     </row>
     <row r="75" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C75" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D75" s="25"/>
       <c r="I75" s="36" t="s">
@@ -7314,7 +7314,7 @@
       <c r="T75" s="17"/>
       <c r="U75" s="17"/>
       <c r="V75" s="40" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="W75" s="8"/>
       <c r="X75" s="8"/>
@@ -7323,17 +7323,17 @@
     <row r="76" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C76" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D76" s="24"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="68" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I76" s="36" t="s">
         <v>46</v>
@@ -7369,14 +7369,14 @@
     </row>
     <row r="77" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C77" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D77" s="25"/>
       <c r="H77" s="56" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I77" s="36" t="s">
         <v>46</v>
@@ -7413,14 +7413,14 @@
     </row>
     <row r="78" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C78" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D78" s="25"/>
       <c r="H78" s="56" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I78" s="36" t="s">
         <v>46</v>
@@ -7451,7 +7451,7 @@
       <c r="R78" s="17"/>
       <c r="T78" s="17"/>
       <c r="U78" s="17" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="V78" s="16" t="s">
         <v>624</v>
@@ -7463,17 +7463,17 @@
     <row r="79" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C79" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D79" s="24"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="56" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I79" s="36" t="s">
         <v>46</v>
@@ -7507,14 +7507,14 @@
     </row>
     <row r="80" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C80" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D80" s="25"/>
       <c r="H80" s="56" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I80" s="36" t="s">
         <v>46</v>
@@ -7551,10 +7551,10 @@
     </row>
     <row r="81" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C81" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D81" s="25"/>
       <c r="H81" s="56"/>
@@ -7589,7 +7589,7 @@
       <c r="T81" s="17"/>
       <c r="U81" s="17"/>
       <c r="V81" s="40" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="W81" s="8"/>
       <c r="X81" s="8"/>
@@ -7597,14 +7597,14 @@
     </row>
     <row r="82" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C82" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D82" s="25"/>
       <c r="H82" s="68" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="I82" s="36" t="s">
         <v>46</v>
@@ -7632,10 +7632,10 @@
       <c r="Q82" s="17"/>
       <c r="R82" s="17"/>
       <c r="S82" s="17" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="T82" s="17" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="U82" s="17"/>
       <c r="V82" s="40"/>
@@ -7645,14 +7645,14 @@
     </row>
     <row r="83" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C83" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D83" s="25"/>
       <c r="H83" s="56" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="I83" s="36" t="s">
         <v>46</v>
@@ -7689,14 +7689,14 @@
     </row>
     <row r="84" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C84" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D84" s="25"/>
       <c r="H84" s="56" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="I84" s="36" t="s">
         <v>46</v>
@@ -7724,10 +7724,10 @@
       <c r="Q84" s="17"/>
       <c r="R84" s="17"/>
       <c r="S84" s="17" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="T84" s="17" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="U84" s="17"/>
       <c r="V84" s="40"/>
@@ -7737,14 +7737,14 @@
     </row>
     <row r="85" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C85" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D85" s="25"/>
       <c r="H85" s="56" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="I85" s="36" t="s">
         <v>46</v>
@@ -7781,10 +7781,10 @@
     </row>
     <row r="86" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C86" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D86" s="25"/>
       <c r="I86" s="36" t="s">
@@ -7822,10 +7822,10 @@
     </row>
     <row r="87" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C87" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D87" s="25"/>
       <c r="I87" s="36" t="s">
@@ -7863,10 +7863,10 @@
     </row>
     <row r="88" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C88" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D88" s="25"/>
       <c r="I88" s="36" t="s">
@@ -7910,10 +7910,10 @@
     </row>
     <row r="89" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C89" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D89" s="25"/>
       <c r="I89" s="36" t="s">
@@ -7944,7 +7944,7 @@
       <c r="S89" s="17"/>
       <c r="T89" s="17"/>
       <c r="U89" s="17" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="V89" s="40"/>
       <c r="W89" s="8"/>
@@ -7953,10 +7953,10 @@
     </row>
     <row r="90" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C90" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D90" s="25"/>
       <c r="I90" s="36" t="s">
@@ -7995,10 +7995,10 @@
     <row r="91" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C91" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D91" s="24"/>
       <c r="E91" s="9"/>
@@ -8038,10 +8038,10 @@
     <row r="92" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C92" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D92" s="24"/>
       <c r="E92" s="9"/>
@@ -8076,16 +8076,16 @@
       <c r="S92" s="17"/>
       <c r="T92" s="17"/>
       <c r="U92" s="17" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="V92" s="40"/>
     </row>
     <row r="93" spans="1:25" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C93" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D93" s="25"/>
       <c r="I93" s="36" t="s">
@@ -8123,10 +8123,10 @@
     </row>
     <row r="94" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C94" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D94" s="25"/>
       <c r="I94" s="36" t="s">
@@ -8164,10 +8164,10 @@
     </row>
     <row r="95" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C95" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D95" s="25"/>
       <c r="I95" s="36" t="s">
@@ -8211,10 +8211,10 @@
     </row>
     <row r="96" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C96" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D96" s="25"/>
       <c r="I96" s="36" t="s">
@@ -8252,10 +8252,10 @@
     </row>
     <row r="97" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C97" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D97" s="25"/>
       <c r="I97" s="36" t="s">
@@ -8293,10 +8293,10 @@
     </row>
     <row r="98" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C98" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D98" s="25"/>
       <c r="I98" s="36" t="s">
@@ -8334,10 +8334,10 @@
     </row>
     <row r="99" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C99" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D99" s="25"/>
       <c r="I99" s="36" t="s">
@@ -8375,10 +8375,10 @@
     </row>
     <row r="100" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C100" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D100" s="25"/>
       <c r="I100" s="36" t="s">
@@ -8409,7 +8409,7 @@
       <c r="S100" s="7"/>
       <c r="T100" s="7"/>
       <c r="U100" s="7" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="V100" s="40"/>
       <c r="W100" s="8"/>
@@ -8418,10 +8418,10 @@
     </row>
     <row r="101" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C101" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D101" s="25"/>
       <c r="I101" s="36" t="s">
@@ -8459,10 +8459,10 @@
     </row>
     <row r="102" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C102" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D102" s="25"/>
       <c r="I102" s="36" t="s">
@@ -8499,10 +8499,10 @@
     </row>
     <row r="103" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C103" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D103" s="25"/>
       <c r="I103" s="36" t="s">
@@ -8544,10 +8544,10 @@
     </row>
     <row r="104" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C104" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D104" s="25"/>
       <c r="I104" s="36" t="s">
@@ -8587,10 +8587,10 @@
     </row>
     <row r="105" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C105" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D105" s="25"/>
       <c r="I105" s="36" t="s">
@@ -8628,10 +8628,10 @@
     </row>
     <row r="106" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C106" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D106" s="25"/>
       <c r="I106" s="36" t="s">
@@ -8669,10 +8669,10 @@
     </row>
     <row r="107" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C107" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D107" s="25"/>
       <c r="I107" s="36" t="s">
@@ -8706,7 +8706,7 @@
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
       <c r="V107" s="60" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="W107" s="8"/>
       <c r="X107" s="8"/>
@@ -8714,10 +8714,10 @@
     </row>
     <row r="108" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C108" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D108" s="25"/>
       <c r="I108" s="36" t="s">
@@ -8748,7 +8748,7 @@
       <c r="S108" s="7"/>
       <c r="T108" s="7"/>
       <c r="U108" s="7" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="V108" s="40"/>
       <c r="W108" s="8"/>
@@ -8757,10 +8757,10 @@
     </row>
     <row r="109" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C109" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D109" s="25"/>
       <c r="I109" s="36" t="s">
@@ -8798,10 +8798,10 @@
     </row>
     <row r="110" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C110" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D110" s="25"/>
       <c r="I110" s="36" t="s">
@@ -8843,10 +8843,10 @@
     </row>
     <row r="111" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C111" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D111" s="25"/>
       <c r="I111" s="36" t="s">
@@ -8888,10 +8888,10 @@
     </row>
     <row r="112" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C112" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D112" s="25"/>
       <c r="I112" s="36" t="s">
@@ -8913,7 +8913,7 @@
         <v>111</v>
       </c>
       <c r="N112" s="16" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="O112" s="7" t="s">
         <v>0</v>
@@ -8935,10 +8935,10 @@
     </row>
     <row r="113" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C113" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D113" s="25"/>
       <c r="I113" s="36" t="s">
@@ -8976,10 +8976,10 @@
     </row>
     <row r="114" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C114" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D114" s="25"/>
       <c r="I114" s="36" t="s">
@@ -9017,14 +9017,14 @@
     </row>
     <row r="115" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C115" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D115" s="25"/>
       <c r="H115" s="68" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="I115" s="36" t="s">
         <v>45</v>
@@ -9065,14 +9065,14 @@
     </row>
     <row r="116" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C116" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D116" s="25"/>
       <c r="H116" s="56" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="I116" s="36" t="s">
         <v>45</v>
@@ -9109,14 +9109,14 @@
     </row>
     <row r="117" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B117" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C117" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D117" s="25"/>
       <c r="H117" s="56" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="I117" s="36" t="s">
         <v>45</v>
@@ -9146,7 +9146,7 @@
       <c r="S117" s="7"/>
       <c r="T117" s="7"/>
       <c r="U117" s="7" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="V117" s="40"/>
       <c r="W117" s="8"/>
@@ -9155,14 +9155,14 @@
     </row>
     <row r="118" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C118" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D118" s="25"/>
       <c r="H118" s="56" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="I118" s="36" t="s">
         <v>45</v>
@@ -9197,7 +9197,7 @@
       <c r="T118" s="7"/>
       <c r="U118" s="7"/>
       <c r="V118" s="16" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="W118" s="8"/>
       <c r="X118" s="8"/>
@@ -9205,10 +9205,10 @@
     </row>
     <row r="119" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C119" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D119" s="25"/>
       <c r="H119" s="32"/>
@@ -9247,10 +9247,10 @@
     </row>
     <row r="120" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C120" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D120" s="25"/>
       <c r="I120" s="36" t="s">
@@ -9288,10 +9288,10 @@
     </row>
     <row r="121" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C121" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D121" s="25"/>
       <c r="I121" s="36" t="s">
@@ -9329,10 +9329,10 @@
     </row>
     <row r="122" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C122" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D122" s="25"/>
       <c r="I122" s="36" t="s">
@@ -9370,10 +9370,10 @@
     </row>
     <row r="123" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C123" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D123" s="25"/>
       <c r="I123" s="36" t="s">
@@ -9411,10 +9411,10 @@
     </row>
     <row r="124" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C124" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D124" s="25"/>
       <c r="I124" s="36" t="s">
@@ -9452,10 +9452,10 @@
     </row>
     <row r="125" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C125" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D125" s="25"/>
       <c r="I125" s="36" t="s">
@@ -9493,10 +9493,10 @@
     </row>
     <row r="126" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C126" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D126" s="25"/>
       <c r="I126" s="36" t="s">
@@ -9530,7 +9530,7 @@
       <c r="T126" s="7"/>
       <c r="U126" s="7"/>
       <c r="V126" s="40" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="W126" s="8"/>
       <c r="X126" s="8"/>
@@ -9538,10 +9538,10 @@
     </row>
     <row r="127" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C127" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D127" s="25"/>
       <c r="I127" s="36" t="s">
@@ -9579,13 +9579,13 @@
     </row>
     <row r="128" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C128" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D128" s="54" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="I128" s="36" t="s">
         <v>45</v>
@@ -9615,7 +9615,7 @@
       <c r="S128" s="7"/>
       <c r="T128" s="7"/>
       <c r="U128" s="7" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="V128" s="40"/>
       <c r="W128" s="8"/>
@@ -9624,10 +9624,10 @@
     </row>
     <row r="129" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C129" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D129" s="25"/>
       <c r="I129" s="36" t="s">
@@ -9669,10 +9669,10 @@
     </row>
     <row r="130" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C130" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D130" s="25"/>
       <c r="I130" s="36" t="s">
@@ -9714,10 +9714,10 @@
     </row>
     <row r="131" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C131" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D131" s="25"/>
       <c r="I131" s="36" t="s">
@@ -9751,7 +9751,7 @@
       <c r="T131" s="7"/>
       <c r="U131" s="7"/>
       <c r="V131" s="40" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="W131" s="8"/>
       <c r="X131" s="8"/>
@@ -9759,17 +9759,17 @@
     </row>
     <row r="132" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C132" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D132" s="25"/>
       <c r="F132" s="70" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="H132" s="68" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="I132" s="36" t="s">
         <v>45</v>
@@ -9802,7 +9802,7 @@
       <c r="T132" s="7"/>
       <c r="U132" s="7"/>
       <c r="V132" s="16" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="W132" s="8"/>
       <c r="X132" s="8"/>
@@ -9810,17 +9810,17 @@
     </row>
     <row r="133" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C133" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D133" s="25"/>
       <c r="F133" s="66" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="H133" s="56" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="I133" s="36" t="s">
         <v>45</v>
@@ -9857,14 +9857,14 @@
     </row>
     <row r="134" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C134" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D134" s="25"/>
       <c r="H134" s="56" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="I134" s="36" t="s">
         <v>45</v>
@@ -9894,7 +9894,7 @@
       <c r="S134" s="7"/>
       <c r="T134" s="7"/>
       <c r="U134" s="7" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="V134" s="40"/>
       <c r="W134" s="8"/>
@@ -9903,14 +9903,14 @@
     </row>
     <row r="135" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C135" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D135" s="25"/>
       <c r="H135" s="56" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="I135" s="36" t="s">
         <v>45</v>
@@ -9947,14 +9947,14 @@
     </row>
     <row r="136" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C136" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D136" s="25"/>
       <c r="H136" s="56" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="I136" s="36" t="s">
         <v>45</v>
@@ -9991,14 +9991,14 @@
     </row>
     <row r="137" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C137" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D137" s="25"/>
       <c r="H137" s="56" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="I137" s="36" t="s">
         <v>45</v>
@@ -10035,16 +10035,16 @@
     </row>
     <row r="138" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C138" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D138" s="54" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="H138" s="56" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="I138" s="36" t="s">
         <v>45</v>
@@ -10081,10 +10081,10 @@
     </row>
     <row r="139" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C139" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D139" s="25"/>
       <c r="I139" s="36" t="s">
@@ -10126,10 +10126,10 @@
     </row>
     <row r="140" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C140" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D140" s="25"/>
       <c r="I140" s="36" t="s">
@@ -10151,7 +10151,7 @@
         <v>139</v>
       </c>
       <c r="N140" s="51" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="O140" s="63" t="s">
         <v>1</v>
@@ -10169,10 +10169,10 @@
     </row>
     <row r="141" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C141" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D141" s="25"/>
       <c r="I141" s="36" t="s">
@@ -10210,10 +10210,10 @@
     </row>
     <row r="142" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C142" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D142" s="25"/>
       <c r="I142" s="36" t="s">
@@ -10251,10 +10251,10 @@
     </row>
     <row r="143" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C143" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D143" s="25"/>
       <c r="I143" s="36" t="s">
@@ -10292,10 +10292,10 @@
     </row>
     <row r="144" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C144" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D144" s="25"/>
       <c r="I144" s="36" t="s">
@@ -10333,10 +10333,10 @@
     </row>
     <row r="145" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C145" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D145" s="25"/>
       <c r="I145" s="36" t="s">
@@ -10374,10 +10374,10 @@
     </row>
     <row r="146" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C146" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D146" s="25"/>
       <c r="I146" s="36" t="s">
@@ -10411,7 +10411,7 @@
       <c r="T146" s="7"/>
       <c r="U146" s="7"/>
       <c r="V146" s="40" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="W146" s="8"/>
       <c r="X146" s="8"/>
@@ -10419,10 +10419,10 @@
     </row>
     <row r="147" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C147" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D147" s="25"/>
       <c r="I147" s="36" t="s">
@@ -10460,10 +10460,10 @@
     </row>
     <row r="148" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C148" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D148" s="25"/>
       <c r="I148" s="36" t="s">
@@ -10501,10 +10501,10 @@
     </row>
     <row r="149" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C149" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D149" s="25"/>
       <c r="I149" s="36" t="s">
@@ -10542,10 +10542,10 @@
     </row>
     <row r="150" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C150" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D150" s="25"/>
       <c r="I150" s="36" t="s">
@@ -10583,10 +10583,10 @@
     </row>
     <row r="151" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B151" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C151" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D151" s="25"/>
       <c r="I151" s="36" t="s">
@@ -10624,10 +10624,10 @@
     </row>
     <row r="152" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C152" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D152" s="25"/>
       <c r="I152" s="36" t="s">
@@ -10648,7 +10648,7 @@
         <v>151</v>
       </c>
       <c r="N152" s="64" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="O152" s="65" t="s">
         <v>1</v>
@@ -10666,10 +10666,10 @@
     </row>
     <row r="153" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C153" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D153" s="25"/>
       <c r="I153" s="36" t="s">
@@ -10707,10 +10707,10 @@
     </row>
     <row r="154" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C154" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D154" s="25"/>
       <c r="I154" s="36" t="s">
@@ -10752,10 +10752,10 @@
     </row>
     <row r="155" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C155" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D155" s="25"/>
       <c r="I155" s="36" t="s">
@@ -10789,7 +10789,7 @@
       <c r="T155" s="7"/>
       <c r="U155" s="7"/>
       <c r="V155" s="40" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="W155" s="8"/>
       <c r="X155" s="8"/>
@@ -10797,10 +10797,10 @@
     </row>
     <row r="156" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C156" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D156" s="25"/>
       <c r="I156" s="36" t="s">
@@ -10842,10 +10842,10 @@
     </row>
     <row r="157" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C157" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D157" s="25"/>
       <c r="I157" s="36" t="s">
@@ -10883,10 +10883,10 @@
     </row>
     <row r="158" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C158" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D158" s="25"/>
       <c r="I158" s="36" t="s">
@@ -10924,10 +10924,10 @@
     </row>
     <row r="159" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C159" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D159" s="25"/>
       <c r="I159" s="36" t="s">
@@ -10969,10 +10969,10 @@
     </row>
     <row r="160" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C160" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D160" s="25"/>
       <c r="I160" s="36" t="s">
@@ -11016,10 +11016,10 @@
     </row>
     <row r="161" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C161" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D161" s="25"/>
       <c r="I161" s="36" t="s">
@@ -11061,10 +11061,10 @@
     </row>
     <row r="162" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C162" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D162" s="25"/>
       <c r="I162" s="36" t="s">
@@ -11102,10 +11102,10 @@
     </row>
     <row r="163" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C163" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D163" s="25"/>
       <c r="I163" s="36" t="s">
@@ -11143,10 +11143,10 @@
     </row>
     <row r="164" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B164" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C164" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D164" s="25"/>
       <c r="I164" s="36" t="s">
@@ -11184,10 +11184,10 @@
     </row>
     <row r="165" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B165" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C165" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D165" s="25"/>
       <c r="I165" s="36" t="s">
@@ -11225,10 +11225,10 @@
     </row>
     <row r="166" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C166" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D166" s="25"/>
       <c r="I166" s="36" t="s">
@@ -11270,10 +11270,10 @@
     </row>
     <row r="167" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B167" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C167" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D167" s="25"/>
       <c r="I167" s="36" t="s">
@@ -11307,7 +11307,7 @@
       <c r="T167" s="7"/>
       <c r="U167" s="7"/>
       <c r="V167" s="40" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="W167" s="8"/>
       <c r="X167" s="8"/>
@@ -11315,10 +11315,10 @@
     </row>
     <row r="168" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C168" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D168" s="25"/>
       <c r="I168" s="36" t="s">
@@ -11360,10 +11360,10 @@
     </row>
     <row r="169" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C169" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D169" s="25"/>
       <c r="I169" s="36" t="s">
@@ -11401,10 +11401,10 @@
     </row>
     <row r="170" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C170" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D170" s="25"/>
       <c r="I170" s="36" t="s">
@@ -11442,10 +11442,10 @@
     </row>
     <row r="171" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C171" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D171" s="25"/>
       <c r="I171" s="36" t="s">
@@ -11487,13 +11487,13 @@
     </row>
     <row r="172" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B172" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C172" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D172" s="71" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="I172" s="36" t="s">
         <v>44</v>
@@ -11523,14 +11523,14 @@
       <c r="Q172" s="7"/>
       <c r="R172" s="7"/>
       <c r="S172" s="7" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="T172" s="7" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="U172" s="7"/>
       <c r="V172" s="51" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="W172" s="8"/>
       <c r="X172" s="8"/>
@@ -11538,10 +11538,10 @@
     </row>
     <row r="173" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B173" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C173" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D173" s="25"/>
       <c r="I173" s="36" t="s">
@@ -11575,7 +11575,7 @@
       <c r="T173" s="7"/>
       <c r="U173" s="7"/>
       <c r="V173" s="40" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="W173" s="8"/>
       <c r="X173" s="8"/>
@@ -11583,14 +11583,14 @@
     </row>
     <row r="174" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B174" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C174" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D174" s="25"/>
       <c r="H174" s="68" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I174" s="36" t="s">
         <v>44</v>
@@ -11627,14 +11627,14 @@
     </row>
     <row r="175" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B175" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C175" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D175" s="25"/>
       <c r="H175" s="56" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I175" s="36" t="s">
         <v>44</v>
@@ -11664,7 +11664,7 @@
       <c r="S175" s="7"/>
       <c r="T175" s="7"/>
       <c r="U175" s="7" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="V175" s="40"/>
       <c r="W175" s="8"/>
@@ -11673,14 +11673,14 @@
     </row>
     <row r="176" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B176" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C176" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D176" s="25"/>
       <c r="H176" s="56" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I176" s="36" t="s">
         <v>44</v>
@@ -11717,14 +11717,14 @@
     </row>
     <row r="177" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B177" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C177" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D177" s="25"/>
       <c r="H177" s="56" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I177" s="36" t="s">
         <v>44</v>
@@ -11761,14 +11761,14 @@
     </row>
     <row r="178" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B178" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C178" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D178" s="25"/>
       <c r="H178" s="56" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I178" s="36" t="s">
         <v>44</v>
@@ -11805,14 +11805,14 @@
     </row>
     <row r="179" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B179" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C179" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D179" s="25"/>
       <c r="H179" s="56" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I179" s="36" t="s">
         <v>44</v>
@@ -11855,10 +11855,10 @@
     </row>
     <row r="180" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B180" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C180" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D180" s="25"/>
       <c r="I180" s="36" t="s">
@@ -11896,10 +11896,10 @@
     </row>
     <row r="181" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B181" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C181" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D181" s="25"/>
       <c r="I181" s="36" t="s">
@@ -11937,10 +11937,10 @@
     </row>
     <row r="182" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B182" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C182" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D182" s="25"/>
       <c r="I182" s="36" t="s">
@@ -11978,10 +11978,10 @@
     </row>
     <row r="183" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B183" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C183" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D183" s="25"/>
       <c r="I183" s="36" t="s">
@@ -12023,10 +12023,10 @@
     </row>
     <row r="184" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B184" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C184" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D184" s="25"/>
       <c r="I184" s="36" t="s">
@@ -12064,10 +12064,10 @@
     </row>
     <row r="185" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B185" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C185" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D185" s="25"/>
       <c r="I185" s="36" t="s">
@@ -12105,10 +12105,10 @@
     </row>
     <row r="186" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B186" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C186" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D186" s="25"/>
       <c r="I186" s="36" t="s">
@@ -12146,10 +12146,10 @@
     </row>
     <row r="187" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B187" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C187" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D187" s="25"/>
       <c r="I187" s="36" t="s">
@@ -12183,7 +12183,7 @@
       <c r="T187" s="7"/>
       <c r="U187" s="7"/>
       <c r="V187" s="43" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="W187" s="8"/>
       <c r="X187" s="8"/>
@@ -12191,10 +12191,10 @@
     </row>
     <row r="188" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B188" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C188" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D188" s="25"/>
       <c r="I188" s="36" t="s">
@@ -12232,10 +12232,10 @@
     </row>
     <row r="189" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B189" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C189" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D189" s="25"/>
       <c r="I189" s="36" t="s">
@@ -12266,7 +12266,7 @@
       <c r="S189" s="7"/>
       <c r="T189" s="7"/>
       <c r="U189" s="7" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="V189" s="40"/>
       <c r="W189" s="8"/>
@@ -12275,10 +12275,10 @@
     </row>
     <row r="190" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B190" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C190" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D190" s="25"/>
       <c r="I190" s="36" t="s">
@@ -12316,10 +12316,10 @@
     </row>
     <row r="191" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B191" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C191" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D191" s="25"/>
       <c r="I191" s="36" t="s">
@@ -12357,10 +12357,10 @@
     </row>
     <row r="192" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B192" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C192" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D192" s="25"/>
       <c r="I192" s="36" t="s">
@@ -12398,10 +12398,10 @@
     </row>
     <row r="193" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B193" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C193" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D193" s="25"/>
       <c r="I193" s="36" t="s">
@@ -12435,7 +12435,7 @@
         <v>398</v>
       </c>
       <c r="T193" s="7" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="U193" s="7"/>
       <c r="V193" s="16"/>
@@ -12445,10 +12445,10 @@
     </row>
     <row r="194" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B194" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C194" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D194" s="25"/>
       <c r="I194" s="36" t="s">
@@ -12482,7 +12482,7 @@
       <c r="T194" s="7"/>
       <c r="U194" s="7"/>
       <c r="V194" s="40" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="W194" s="8"/>
       <c r="X194" s="8"/>
@@ -12490,14 +12490,14 @@
     </row>
     <row r="195" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B195" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C195" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D195" s="25"/>
       <c r="H195" s="68" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="I195" s="36" t="s">
         <v>44</v>
@@ -12534,14 +12534,14 @@
     </row>
     <row r="196" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B196" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C196" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D196" s="25"/>
       <c r="H196" s="56" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="I196" s="36" t="s">
         <v>44</v>
@@ -12578,16 +12578,16 @@
     </row>
     <row r="197" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B197" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C197" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D197" s="54" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="H197" s="56" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="I197" s="36" t="s">
         <v>44</v>
@@ -12617,7 +12617,7 @@
       <c r="S197" s="7"/>
       <c r="T197" s="7"/>
       <c r="U197" s="7" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="V197" s="40"/>
       <c r="W197" s="8"/>
@@ -12626,14 +12626,14 @@
     </row>
     <row r="198" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B198" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C198" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D198" s="25"/>
       <c r="H198" s="56" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="I198" s="36" t="s">
         <v>44</v>
@@ -12670,14 +12670,14 @@
     </row>
     <row r="199" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B199" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C199" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D199" s="25"/>
       <c r="H199" s="56" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="I199" s="36" t="s">
         <v>44</v>
@@ -12718,14 +12718,14 @@
     </row>
     <row r="200" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B200" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C200" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D200" s="25"/>
       <c r="H200" s="56" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="I200" s="36" t="s">
         <v>44</v>
@@ -12758,7 +12758,7 @@
       <c r="T200" s="7"/>
       <c r="U200" s="7"/>
       <c r="V200" s="40" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="W200" s="8"/>
       <c r="X200" s="8"/>
@@ -12766,10 +12766,10 @@
     </row>
     <row r="201" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B201" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C201" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D201" s="25"/>
       <c r="I201" s="36" t="s">
@@ -12807,10 +12807,10 @@
     </row>
     <row r="202" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B202" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C202" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D202" s="25"/>
       <c r="I202" s="36" t="s">
@@ -12848,10 +12848,10 @@
     </row>
     <row r="203" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B203" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C203" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D203" s="25"/>
       <c r="I203" s="36" t="s">
@@ -12889,10 +12889,10 @@
     </row>
     <row r="204" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B204" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C204" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D204" s="25"/>
       <c r="I204" s="36" t="s">
@@ -12930,10 +12930,10 @@
     </row>
     <row r="205" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B205" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C205" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D205" s="25"/>
       <c r="I205" s="36" t="s">
@@ -12955,7 +12955,7 @@
         <v>204</v>
       </c>
       <c r="N205" s="16" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="O205" s="62" t="s">
         <v>0</v>
@@ -12975,10 +12975,10 @@
     </row>
     <row r="206" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B206" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C206" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D206" s="25"/>
       <c r="I206" s="36" t="s">
@@ -13016,10 +13016,10 @@
     </row>
     <row r="207" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B207" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C207" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D207" s="25"/>
       <c r="I207" s="36" t="s">
@@ -13053,7 +13053,7 @@
       <c r="T207" s="7"/>
       <c r="U207" s="7"/>
       <c r="V207" s="16" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="W207" s="8"/>
       <c r="X207" s="8"/>
@@ -13061,10 +13061,10 @@
     </row>
     <row r="208" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B208" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C208" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D208" s="25"/>
       <c r="I208" s="36" t="s">
@@ -13103,10 +13103,10 @@
     </row>
     <row r="209" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B209" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C209" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D209" s="25"/>
       <c r="I209" s="36" t="s">
@@ -13144,10 +13144,10 @@
     </row>
     <row r="210" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B210" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C210" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D210" s="25"/>
       <c r="I210" s="36" t="s">
@@ -13185,10 +13185,10 @@
     </row>
     <row r="211" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B211" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C211" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D211" s="25"/>
       <c r="I211" s="36" t="s">
@@ -13226,10 +13226,10 @@
     </row>
     <row r="212" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B212" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C212" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D212" s="25"/>
       <c r="I212" s="36" t="s">
@@ -13267,10 +13267,10 @@
     </row>
     <row r="213" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B213" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C213" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D213" s="25"/>
       <c r="I213" s="36" t="s">
@@ -13308,10 +13308,10 @@
     </row>
     <row r="214" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B214" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C214" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D214" s="25"/>
       <c r="I214" s="36" t="s">
@@ -13345,7 +13345,7 @@
       <c r="T214" s="7"/>
       <c r="U214" s="7"/>
       <c r="V214" s="40" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="W214" s="8"/>
       <c r="X214" s="8"/>
@@ -13353,20 +13353,20 @@
     </row>
     <row r="215" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B215" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C215" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D215" s="25"/>
       <c r="F215" s="70" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="G215" s="70" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="H215" s="68" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="I215" s="36" t="s">
         <v>44</v>
@@ -13399,7 +13399,7 @@
       <c r="T215" s="7"/>
       <c r="U215" s="7"/>
       <c r="V215" s="40" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="W215" s="8"/>
       <c r="X215" s="8"/>
@@ -13407,20 +13407,20 @@
     </row>
     <row r="216" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B216" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C216" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D216" s="25"/>
       <c r="F216" s="57" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="G216" s="57" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="H216" s="56" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="I216" s="36" t="s">
         <v>44</v>
@@ -13457,14 +13457,14 @@
     </row>
     <row r="217" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B217" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C217" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D217" s="25"/>
       <c r="H217" s="56" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="I217" s="36" t="s">
         <v>44</v>
@@ -13505,14 +13505,14 @@
     </row>
     <row r="218" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B218" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C218" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D218" s="25"/>
       <c r="H218" s="56" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="I218" s="36" t="s">
         <v>44</v>
@@ -13549,14 +13549,14 @@
     </row>
     <row r="219" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B219" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C219" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D219" s="25"/>
       <c r="H219" s="56" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="I219" s="36" t="s">
         <v>44</v>
@@ -13593,10 +13593,10 @@
     </row>
     <row r="220" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B220" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C220" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D220" s="25"/>
       <c r="I220" s="36" t="s">
@@ -13627,7 +13627,7 @@
       <c r="S220" s="7"/>
       <c r="T220" s="7"/>
       <c r="U220" s="7" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="V220" s="40"/>
       <c r="W220" s="8"/>
@@ -13636,10 +13636,10 @@
     </row>
     <row r="221" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B221" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C221" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D221" s="25"/>
       <c r="I221" s="36" t="s">
@@ -13679,10 +13679,10 @@
     </row>
     <row r="222" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B222" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C222" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D222" s="25"/>
       <c r="I222" s="36" t="s">
@@ -13720,10 +13720,10 @@
     </row>
     <row r="223" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B223" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C223" s="56" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="D223" s="25"/>
       <c r="I223" s="36" t="s">
@@ -13757,7 +13757,7 @@
       <c r="T223" s="7"/>
       <c r="U223" s="7"/>
       <c r="V223" s="43" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="W223" s="8"/>
       <c r="X223" s="8"/>
@@ -13765,7 +13765,7 @@
     </row>
     <row r="224" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B224" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D224" s="25"/>
       <c r="I224" s="36" t="s">
@@ -13801,7 +13801,7 @@
     </row>
     <row r="225" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B225" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D225" s="25"/>
       <c r="I225" s="36" t="s">
@@ -13843,7 +13843,7 @@
     </row>
     <row r="226" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B226" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D226" s="25"/>
       <c r="I226" s="36" t="s">
@@ -13885,7 +13885,7 @@
     </row>
     <row r="227" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B227" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D227" s="26"/>
       <c r="I227" s="36" t="s">
@@ -13923,7 +13923,7 @@
     </row>
     <row r="228" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B228" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D228" s="25"/>
       <c r="I228" s="36" t="s">
@@ -13961,13 +13961,13 @@
     </row>
     <row r="229" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B229" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D229" s="54" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="H229" s="68" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="I229" s="36" t="s">
         <v>43</v>
@@ -14004,11 +14004,11 @@
     </row>
     <row r="230" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B230" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D230" s="25"/>
       <c r="H230" s="56" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="I230" s="36" t="s">
         <v>43</v>
@@ -14034,16 +14034,16 @@
       <c r="O230" s="7"/>
       <c r="P230" s="39"/>
       <c r="Q230" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R230" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S230" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T230" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U230" s="7"/>
       <c r="V230" s="40"/>
@@ -14053,7 +14053,7 @@
     </row>
     <row r="231" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B231" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D231" s="25"/>
       <c r="I231" s="36" t="s">
@@ -14091,7 +14091,7 @@
     </row>
     <row r="232" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B232" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D232" s="25"/>
       <c r="I232" s="36" t="s">
@@ -14129,7 +14129,7 @@
     </row>
     <row r="233" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B233" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D233" s="25"/>
       <c r="I233" s="36" t="s">
@@ -14171,7 +14171,7 @@
     </row>
     <row r="234" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B234" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D234" s="25"/>
       <c r="I234" s="36" t="s">
@@ -14209,7 +14209,7 @@
     </row>
     <row r="235" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B235" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D235" s="25"/>
       <c r="I235" s="36" t="s">
@@ -14247,7 +14247,7 @@
     </row>
     <row r="236" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B236" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D236" s="25"/>
       <c r="I236" s="36" t="s">
@@ -14274,16 +14274,16 @@
       <c r="O236" s="7"/>
       <c r="P236" s="39"/>
       <c r="Q236" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R236" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S236" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T236" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U236" s="7"/>
       <c r="V236" s="40"/>
@@ -14293,7 +14293,7 @@
     </row>
     <row r="237" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B237" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D237" s="25"/>
       <c r="I237" s="36" t="s">
@@ -14331,7 +14331,7 @@
     </row>
     <row r="238" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B238" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D238" s="25"/>
       <c r="I238" s="36" t="s">
@@ -14369,7 +14369,7 @@
     </row>
     <row r="239" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B239" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D239" s="25"/>
       <c r="I239" s="36" t="s">
@@ -14411,7 +14411,7 @@
     </row>
     <row r="240" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B240" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D240" s="25"/>
       <c r="I240" s="36" t="s">
@@ -14449,7 +14449,7 @@
     </row>
     <row r="241" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B241" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D241" s="25"/>
       <c r="I241" s="36" t="s">
@@ -14487,7 +14487,7 @@
     </row>
     <row r="242" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B242" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D242" s="25"/>
       <c r="I242" s="36" t="s">
@@ -14514,16 +14514,16 @@
       <c r="O242" s="62"/>
       <c r="P242" s="39"/>
       <c r="Q242" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R242" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S242" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T242" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U242" s="7"/>
       <c r="V242" s="40"/>
@@ -14533,7 +14533,7 @@
     </row>
     <row r="243" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B243" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D243" s="25"/>
       <c r="I243" s="36" t="s">
@@ -14571,7 +14571,7 @@
     </row>
     <row r="244" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B244" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D244" s="25"/>
       <c r="I244" s="36" t="s">
@@ -14609,7 +14609,7 @@
     </row>
     <row r="245" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B245" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D245" s="25"/>
       <c r="I245" s="36" t="s">
@@ -14651,7 +14651,7 @@
     </row>
     <row r="246" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B246" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D246" s="25"/>
       <c r="I246" s="36" t="s">
@@ -14689,7 +14689,7 @@
     </row>
     <row r="247" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B247" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D247" s="25"/>
       <c r="I247" s="36" t="s">
@@ -14727,7 +14727,7 @@
     </row>
     <row r="248" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B248" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D248" s="25"/>
       <c r="I248" s="36" t="s">
@@ -14754,16 +14754,16 @@
       <c r="O248" s="62"/>
       <c r="P248" s="39"/>
       <c r="Q248" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R248" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S248" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T248" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U248" s="7"/>
       <c r="V248" s="40"/>
@@ -14773,7 +14773,7 @@
     </row>
     <row r="249" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B249" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D249" s="25"/>
       <c r="I249" s="36" t="s">
@@ -14811,7 +14811,7 @@
     </row>
     <row r="250" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B250" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D250" s="25"/>
       <c r="I250" s="36" t="s">
@@ -14853,7 +14853,7 @@
     </row>
     <row r="251" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B251" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D251" s="25"/>
       <c r="I251" s="36" t="s">
@@ -14895,7 +14895,7 @@
     </row>
     <row r="252" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B252" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D252" s="25"/>
       <c r="I252" s="36" t="s">
@@ -14933,7 +14933,7 @@
     </row>
     <row r="253" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B253" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D253" s="25"/>
       <c r="I253" s="36" t="s">
@@ -14971,7 +14971,7 @@
     </row>
     <row r="254" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B254" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D254" s="25"/>
       <c r="I254" s="36" t="s">
@@ -14998,16 +14998,16 @@
       <c r="O254" s="7"/>
       <c r="P254" s="39"/>
       <c r="Q254" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R254" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S254" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T254" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U254" s="7"/>
       <c r="V254" s="40"/>
@@ -15017,7 +15017,7 @@
     </row>
     <row r="255" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B255" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D255" s="25"/>
       <c r="I255" s="36" t="s">
@@ -15055,7 +15055,7 @@
     </row>
     <row r="256" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B256" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D256" s="25"/>
       <c r="I256" s="36" t="s">
@@ -15093,7 +15093,7 @@
     </row>
     <row r="257" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B257" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D257" s="25"/>
       <c r="I257" s="36" t="s">
@@ -15131,7 +15131,7 @@
     </row>
     <row r="258" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B258" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D258" s="25"/>
       <c r="I258" s="36" t="s">
@@ -15169,7 +15169,7 @@
     </row>
     <row r="259" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B259" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D259" s="25"/>
       <c r="I259" s="36" t="s">
@@ -15207,7 +15207,7 @@
     </row>
     <row r="260" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B260" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D260" s="25"/>
       <c r="I260" s="36" t="s">
@@ -15234,16 +15234,16 @@
       <c r="O260" s="7"/>
       <c r="P260" s="39"/>
       <c r="Q260" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R260" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S260" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T260" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U260" s="7"/>
       <c r="V260" s="40"/>
@@ -15253,7 +15253,7 @@
     </row>
     <row r="261" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B261" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D261" s="25"/>
       <c r="I261" s="36" t="s">
@@ -15291,7 +15291,7 @@
     </row>
     <row r="262" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B262" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D262" s="25"/>
       <c r="I262" s="36" t="s">
@@ -15329,7 +15329,7 @@
     </row>
     <row r="263" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B263" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D263" s="25"/>
       <c r="I263" s="36" t="s">
@@ -15371,7 +15371,7 @@
     </row>
     <row r="264" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B264" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D264" s="25"/>
       <c r="I264" s="36" t="s">
@@ -15409,7 +15409,7 @@
     </row>
     <row r="265" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B265" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D265" s="25"/>
       <c r="I265" s="36" t="s">
@@ -15447,7 +15447,7 @@
     </row>
     <row r="266" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B266" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D266" s="25"/>
       <c r="I266" s="36" t="s">
@@ -15474,16 +15474,16 @@
       <c r="O266" s="7"/>
       <c r="P266" s="39"/>
       <c r="Q266" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R266" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S266" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T266" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U266" s="7"/>
       <c r="V266" s="40"/>
@@ -15493,7 +15493,7 @@
     </row>
     <row r="267" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B267" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D267" s="33"/>
       <c r="I267" s="36" t="s">
@@ -15531,7 +15531,7 @@
     </row>
     <row r="268" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B268" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D268" s="25"/>
       <c r="I268" s="36" t="s">
@@ -15569,7 +15569,7 @@
     </row>
     <row r="269" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B269" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D269" s="25"/>
       <c r="I269" s="36" t="s">
@@ -15607,7 +15607,7 @@
     </row>
     <row r="270" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B270" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D270" s="25"/>
       <c r="I270" s="36" t="s">
@@ -15645,7 +15645,7 @@
     </row>
     <row r="271" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B271" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D271" s="25"/>
       <c r="I271" s="36" t="s">
@@ -15683,7 +15683,7 @@
     </row>
     <row r="272" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B272" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D272" s="25"/>
       <c r="I272" s="36" t="s">
@@ -15710,16 +15710,16 @@
       <c r="O272" s="62"/>
       <c r="P272" s="39"/>
       <c r="Q272" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R272" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S272" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T272" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U272" s="7"/>
       <c r="V272" s="40"/>
@@ -15729,7 +15729,7 @@
     </row>
     <row r="273" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B273" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D273" s="25"/>
       <c r="I273" s="36" t="s">
@@ -15767,7 +15767,7 @@
     </row>
     <row r="274" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B274" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D274" s="25"/>
       <c r="I274" s="36" t="s">
@@ -15804,7 +15804,7 @@
     </row>
     <row r="275" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B275" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D275" s="25"/>
       <c r="I275" s="36" t="s">
@@ -15842,7 +15842,7 @@
     </row>
     <row r="276" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B276" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D276" s="25"/>
       <c r="I276" s="36" t="s">
@@ -15880,7 +15880,7 @@
     </row>
     <row r="277" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B277" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D277" s="25"/>
       <c r="I277" s="36" t="s">
@@ -15918,7 +15918,7 @@
     </row>
     <row r="278" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B278" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D278" s="25"/>
       <c r="I278" s="36" t="s">
@@ -15945,16 +15945,16 @@
       <c r="O278" s="62"/>
       <c r="P278" s="39"/>
       <c r="Q278" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R278" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S278" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T278" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U278" s="7"/>
       <c r="V278" s="40"/>
@@ -15964,7 +15964,7 @@
     </row>
     <row r="279" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B279" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D279" s="25"/>
       <c r="I279" s="36" t="s">
@@ -16002,7 +16002,7 @@
     </row>
     <row r="280" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B280" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D280" s="25"/>
       <c r="I280" s="36" t="s">
@@ -16040,7 +16040,7 @@
     </row>
     <row r="281" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B281" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D281" s="25"/>
       <c r="I281" s="36" t="s">
@@ -16078,7 +16078,7 @@
     </row>
     <row r="282" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B282" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D282" s="25"/>
       <c r="I282" s="36" t="s">
@@ -16116,7 +16116,7 @@
     </row>
     <row r="283" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B283" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D283" s="25"/>
       <c r="I283" s="36" t="s">
@@ -16154,7 +16154,7 @@
     </row>
     <row r="284" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B284" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D284" s="25"/>
       <c r="I284" s="36" t="s">
@@ -16181,16 +16181,16 @@
       <c r="O284" s="62"/>
       <c r="P284" s="39"/>
       <c r="Q284" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R284" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S284" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T284" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U284" s="7"/>
       <c r="V284" s="40"/>
@@ -16200,7 +16200,7 @@
     </row>
     <row r="285" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B285" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D285" s="25"/>
       <c r="I285" s="36" t="s">
@@ -16238,7 +16238,7 @@
     </row>
     <row r="286" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B286" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D286" s="25"/>
       <c r="I286" s="36" t="s">
@@ -16276,7 +16276,7 @@
     </row>
     <row r="287" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B287" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D287" s="25"/>
       <c r="I287" s="36" t="s">
@@ -16318,7 +16318,7 @@
     </row>
     <row r="288" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B288" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D288" s="25"/>
       <c r="I288" s="36" t="s">
@@ -16356,7 +16356,7 @@
     </row>
     <row r="289" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B289" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D289" s="25"/>
       <c r="I289" s="36" t="s">
@@ -16394,7 +16394,7 @@
     </row>
     <row r="290" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B290" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D290" s="25"/>
       <c r="I290" s="36" t="s">
@@ -16421,16 +16421,16 @@
       <c r="O290" s="62"/>
       <c r="P290" s="39"/>
       <c r="Q290" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R290" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S290" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T290" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U290" s="7"/>
       <c r="V290" s="40"/>
@@ -16440,7 +16440,7 @@
     </row>
     <row r="291" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B291" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D291" s="25"/>
       <c r="I291" s="36" t="s">
@@ -16478,7 +16478,7 @@
     </row>
     <row r="292" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B292" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D292" s="25"/>
       <c r="I292" s="36" t="s">
@@ -16520,7 +16520,7 @@
     </row>
     <row r="293" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B293" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D293" s="25"/>
       <c r="I293" s="36" t="s">
@@ -16562,7 +16562,7 @@
     </row>
     <row r="294" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B294" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D294" s="25"/>
       <c r="I294" s="36" t="s">
@@ -16600,7 +16600,7 @@
     </row>
     <row r="295" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B295" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D295" s="25"/>
       <c r="I295" s="36" t="s">
@@ -16638,7 +16638,7 @@
     </row>
     <row r="296" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B296" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D296" s="25"/>
       <c r="I296" s="36" t="s">
@@ -16665,16 +16665,16 @@
       <c r="O296" s="62"/>
       <c r="P296" s="39"/>
       <c r="Q296" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R296" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S296" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T296" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U296" s="7"/>
       <c r="V296" s="40"/>
@@ -16684,7 +16684,7 @@
     </row>
     <row r="297" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B297" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D297" s="25"/>
       <c r="I297" s="36" t="s">
@@ -16722,7 +16722,7 @@
     </row>
     <row r="298" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B298" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D298" s="25"/>
       <c r="H298" s="32"/>
@@ -16765,7 +16765,7 @@
     </row>
     <row r="299" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B299" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D299" s="25"/>
       <c r="H299" s="32"/>
@@ -16804,7 +16804,7 @@
     </row>
     <row r="300" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B300" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D300" s="25"/>
       <c r="H300" s="32"/>
@@ -16827,7 +16827,7 @@
         <v>77</v>
       </c>
       <c r="N300" s="18" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="O300" s="7"/>
       <c r="P300" s="39"/>
@@ -16843,7 +16843,7 @@
     </row>
     <row r="301" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B301" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D301" s="25"/>
       <c r="I301" s="36" t="s">
@@ -16881,7 +16881,7 @@
     </row>
     <row r="302" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B302" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D302" s="25"/>
       <c r="I302" s="36" t="s">
@@ -16912,10 +16912,10 @@
       <c r="Q302" s="7"/>
       <c r="R302" s="7"/>
       <c r="S302" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T302" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U302" s="7"/>
       <c r="V302" s="40" t="s">
@@ -16927,7 +16927,7 @@
     </row>
     <row r="303" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B303" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D303" s="25"/>
       <c r="I303" s="36" t="s">
@@ -16963,7 +16963,7 @@
     </row>
     <row r="304" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B304" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D304" s="25"/>
       <c r="I304" s="36" t="s">
@@ -17001,7 +17001,7 @@
     </row>
     <row r="305" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B305" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D305" s="25"/>
       <c r="I305" s="36" t="s">
@@ -17043,7 +17043,7 @@
     </row>
     <row r="306" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B306" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D306" s="25"/>
       <c r="I306" s="36" t="s">
@@ -17085,7 +17085,7 @@
     </row>
     <row r="307" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B307" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D307" s="25"/>
       <c r="I307" s="36" t="s">
@@ -17123,7 +17123,7 @@
     </row>
     <row r="308" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B308" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D308" s="25"/>
       <c r="I308" s="36" t="s">
@@ -17150,16 +17150,16 @@
       <c r="O308" s="62"/>
       <c r="P308" s="39"/>
       <c r="Q308" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R308" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S308" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T308" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U308" s="7"/>
       <c r="V308" s="40"/>
@@ -17169,7 +17169,7 @@
     </row>
     <row r="309" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B309" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D309" s="25"/>
       <c r="I309" s="36" t="s">
@@ -17207,7 +17207,7 @@
     </row>
     <row r="310" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B310" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D310" s="25"/>
       <c r="I310" s="36" t="s">
@@ -17245,7 +17245,7 @@
     </row>
     <row r="311" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B311" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D311" s="25"/>
       <c r="I311" s="36" t="s">
@@ -17287,7 +17287,7 @@
     </row>
     <row r="312" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B312" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D312" s="25"/>
       <c r="I312" s="36" t="s">
@@ -17325,7 +17325,7 @@
     </row>
     <row r="313" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B313" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D313" s="25"/>
       <c r="I313" s="36" t="s">
@@ -17363,7 +17363,7 @@
     </row>
     <row r="314" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B314" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D314" s="25"/>
       <c r="I314" s="36" t="s">
@@ -17390,16 +17390,16 @@
       <c r="O314" s="62"/>
       <c r="P314" s="39"/>
       <c r="Q314" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R314" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S314" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T314" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U314" s="7"/>
       <c r="V314" s="40"/>
@@ -17409,7 +17409,7 @@
     </row>
     <row r="315" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B315" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D315" s="25"/>
       <c r="I315" s="36" t="s">
@@ -17447,7 +17447,7 @@
     </row>
     <row r="316" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B316" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D316" s="25"/>
       <c r="I316" s="36" t="s">
@@ -17489,7 +17489,7 @@
     </row>
     <row r="317" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B317" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D317" s="25"/>
       <c r="I317" s="36" t="s">
@@ -17531,7 +17531,7 @@
     </row>
     <row r="318" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B318" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D318" s="25"/>
       <c r="I318" s="36" t="s">
@@ -17569,7 +17569,7 @@
     </row>
     <row r="319" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B319" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D319" s="25"/>
       <c r="I319" s="36" t="s">
@@ -17607,7 +17607,7 @@
     </row>
     <row r="320" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B320" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D320" s="25"/>
       <c r="I320" s="36" t="s">
@@ -17634,16 +17634,16 @@
       <c r="O320" s="7"/>
       <c r="P320" s="39"/>
       <c r="Q320" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R320" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S320" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T320" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U320" s="7"/>
       <c r="V320" s="40"/>
@@ -17653,7 +17653,7 @@
     </row>
     <row r="321" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B321" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D321" s="25"/>
       <c r="I321" s="36" t="s">
@@ -17691,7 +17691,7 @@
     </row>
     <row r="322" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B322" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D322" s="25"/>
       <c r="I322" s="36" t="s">
@@ -17729,7 +17729,7 @@
     </row>
     <row r="323" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B323" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D323" s="25"/>
       <c r="I323" s="36" t="s">
@@ -17771,7 +17771,7 @@
     </row>
     <row r="324" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B324" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D324" s="25"/>
       <c r="I324" s="36" t="s">
@@ -17809,7 +17809,7 @@
     </row>
     <row r="325" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B325" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D325" s="25"/>
       <c r="I325" s="36" t="s">
@@ -17847,7 +17847,7 @@
     </row>
     <row r="326" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B326" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D326" s="25"/>
       <c r="I326" s="36" t="s">
@@ -17874,16 +17874,16 @@
       <c r="O326" s="7"/>
       <c r="P326" s="39"/>
       <c r="Q326" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R326" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S326" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T326" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U326" s="7"/>
       <c r="V326" s="40"/>
@@ -17893,7 +17893,7 @@
     </row>
     <row r="327" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B327" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D327" s="25"/>
       <c r="I327" s="36" t="s">
@@ -17931,7 +17931,7 @@
     </row>
     <row r="328" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B328" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D328" s="25"/>
       <c r="I328" s="36" t="s">
@@ -17965,7 +17965,7 @@
       <c r="T328" s="7"/>
       <c r="U328" s="7"/>
       <c r="V328" s="51" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="W328" s="8"/>
       <c r="X328" s="8"/>
@@ -17973,7 +17973,7 @@
     </row>
     <row r="329" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B329" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D329" s="25"/>
       <c r="I329" s="36" t="s">
@@ -18015,7 +18015,7 @@
     </row>
     <row r="330" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B330" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D330" s="25"/>
       <c r="I330" s="36" t="s">
@@ -18053,7 +18053,7 @@
     </row>
     <row r="331" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B331" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D331" s="25"/>
       <c r="I331" s="36" t="s">
@@ -18091,7 +18091,7 @@
     </row>
     <row r="332" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B332" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D332" s="25"/>
       <c r="I332" s="36" t="s">
@@ -18118,16 +18118,16 @@
       <c r="O332" s="7"/>
       <c r="P332" s="39"/>
       <c r="Q332" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R332" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S332" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T332" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U332" s="7"/>
       <c r="V332" s="40"/>
@@ -18137,7 +18137,7 @@
     </row>
     <row r="333" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B333" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D333" s="25"/>
       <c r="I333" s="36" t="s">
@@ -18175,7 +18175,7 @@
     </row>
     <row r="334" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B334" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D334" s="25"/>
       <c r="I334" s="36" t="s">
@@ -18217,7 +18217,7 @@
     </row>
     <row r="335" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B335" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D335" s="25"/>
       <c r="I335" s="36" t="s">
@@ -18239,7 +18239,7 @@
         <v>33</v>
       </c>
       <c r="N335" s="16" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="O335" s="62" t="s">
         <v>0</v>
@@ -18259,7 +18259,7 @@
     </row>
     <row r="336" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B336" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D336" s="25"/>
       <c r="I336" s="36" t="s">
@@ -18297,7 +18297,7 @@
     </row>
     <row r="337" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B337" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D337" s="25"/>
       <c r="I337" s="36" t="s">
@@ -18335,7 +18335,7 @@
     </row>
     <row r="338" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B338" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D338" s="25"/>
       <c r="I338" s="36" t="s">
@@ -18362,16 +18362,16 @@
       <c r="O338" s="62"/>
       <c r="P338" s="39"/>
       <c r="Q338" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R338" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S338" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T338" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U338" s="7"/>
       <c r="V338" s="40"/>
@@ -18381,7 +18381,7 @@
     </row>
     <row r="339" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B339" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D339" s="25"/>
       <c r="I339" s="36" t="s">
@@ -18419,7 +18419,7 @@
     </row>
     <row r="340" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B340" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D340" s="25"/>
       <c r="I340" s="36" t="s">
@@ -18461,7 +18461,7 @@
     </row>
     <row r="341" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B341" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D341" s="25"/>
       <c r="I341" s="36" t="s">
@@ -18499,7 +18499,7 @@
     </row>
     <row r="342" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B342" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D342" s="25"/>
       <c r="I342" s="36" t="s">
@@ -18541,7 +18541,7 @@
     </row>
     <row r="343" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B343" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D343" s="25"/>
       <c r="I343" s="36" t="s">
@@ -18583,7 +18583,7 @@
     </row>
     <row r="344" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B344" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D344" s="25"/>
       <c r="I344" s="36" t="s">
@@ -18621,7 +18621,7 @@
     </row>
     <row r="345" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B345" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D345" s="25"/>
       <c r="I345" s="36" t="s">
@@ -18648,16 +18648,16 @@
       <c r="O345" s="7"/>
       <c r="P345" s="39"/>
       <c r="Q345" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R345" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S345" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T345" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U345" s="7"/>
       <c r="V345" s="40"/>
@@ -18667,7 +18667,7 @@
     </row>
     <row r="346" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B346" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D346" s="25"/>
       <c r="I346" s="36" t="s">
@@ -18705,7 +18705,7 @@
     </row>
     <row r="347" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B347" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D347" s="25"/>
       <c r="I347" s="36" t="s">
@@ -18743,7 +18743,7 @@
     </row>
     <row r="348" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B348" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D348" s="25"/>
       <c r="I348" s="36" t="s">
@@ -18785,7 +18785,7 @@
     </row>
     <row r="349" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B349" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D349" s="25"/>
       <c r="I349" s="36" t="s">
@@ -18823,7 +18823,7 @@
     </row>
     <row r="350" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B350" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D350" s="25"/>
       <c r="I350" s="36" t="s">
@@ -18861,7 +18861,7 @@
     </row>
     <row r="351" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B351" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D351" s="25"/>
       <c r="I351" s="36" t="s">
@@ -18888,16 +18888,16 @@
       <c r="O351" s="7"/>
       <c r="P351" s="39"/>
       <c r="Q351" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R351" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S351" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T351" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="U351" s="7"/>
       <c r="V351" s="40"/>
@@ -18907,7 +18907,7 @@
     </row>
     <row r="352" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B352" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D352" s="25"/>
       <c r="I352" s="36" t="s">
@@ -18945,7 +18945,7 @@
     </row>
     <row r="353" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B353" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D353" s="25"/>
       <c r="I353" s="36" t="s">
@@ -18986,7 +18986,7 @@
     </row>
     <row r="354" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B354" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D354" s="25"/>
       <c r="I354" s="36" t="s">
@@ -19028,7 +19028,7 @@
     </row>
     <row r="355" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B355" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D355" s="25"/>
       <c r="I355" s="36" t="s">
@@ -19066,7 +19066,7 @@
     </row>
     <row r="356" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B356" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D356" s="25"/>
       <c r="I356" s="36" t="s">
@@ -19104,7 +19104,7 @@
     </row>
     <row r="357" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B357" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D357" s="25"/>
       <c r="I357" s="36" t="s">
@@ -19131,10 +19131,10 @@
       <c r="O357" s="7"/>
       <c r="P357" s="39"/>
       <c r="Q357" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R357" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S357" s="7"/>
       <c r="T357" s="7"/>
@@ -19146,7 +19146,7 @@
     </row>
     <row r="358" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B358" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D358" s="25"/>
       <c r="I358" s="36" t="s">
@@ -19184,7 +19184,7 @@
     </row>
     <row r="359" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B359" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D359" s="25"/>
       <c r="I359" s="36" t="s">
@@ -19226,7 +19226,7 @@
     </row>
     <row r="360" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B360" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D360" s="25"/>
       <c r="I360" s="36" t="s">
@@ -19268,7 +19268,7 @@
     </row>
     <row r="361" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B361" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D361" s="25"/>
       <c r="I361" s="36" t="s">
@@ -19306,7 +19306,7 @@
     </row>
     <row r="362" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B362" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D362" s="25"/>
       <c r="I362" s="36" t="s">
@@ -19344,7 +19344,7 @@
     </row>
     <row r="363" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B363" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D363" s="25"/>
       <c r="I363" s="36" t="s">
@@ -19371,10 +19371,10 @@
       <c r="O363" s="7"/>
       <c r="P363" s="39"/>
       <c r="Q363" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R363" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S363" s="7"/>
       <c r="T363" s="7"/>
@@ -19386,7 +19386,7 @@
     </row>
     <row r="364" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B364" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D364" s="25"/>
       <c r="I364" s="36" t="s">
@@ -19424,7 +19424,7 @@
     </row>
     <row r="365" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B365" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D365" s="25"/>
       <c r="I365" s="36" t="s">
@@ -19466,7 +19466,7 @@
     </row>
     <row r="366" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B366" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D366" s="25"/>
       <c r="I366" s="36" t="s">
@@ -19508,7 +19508,7 @@
     </row>
     <row r="367" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B367" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D367" s="25"/>
       <c r="I367" s="36" t="s">
@@ -19546,7 +19546,7 @@
     </row>
     <row r="368" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B368" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D368" s="25"/>
       <c r="I368" s="36" t="s">
@@ -19584,7 +19584,7 @@
     </row>
     <row r="369" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B369" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D369" s="25"/>
       <c r="I369" s="36" t="s">
@@ -19611,10 +19611,10 @@
       <c r="O369" s="7"/>
       <c r="P369" s="39"/>
       <c r="Q369" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R369" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S369" s="7"/>
       <c r="T369" s="7"/>
@@ -19626,7 +19626,7 @@
     </row>
     <row r="370" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B370" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D370" s="25"/>
       <c r="I370" s="36" t="s">
@@ -19664,7 +19664,7 @@
     </row>
     <row r="371" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B371" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D371" s="25"/>
       <c r="I371" s="36" t="s">
@@ -19706,7 +19706,7 @@
     </row>
     <row r="372" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B372" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D372" s="25"/>
       <c r="I372" s="36" t="s">
@@ -19728,7 +19728,7 @@
         <v>70</v>
       </c>
       <c r="N372" s="16" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="O372" s="62" t="s">
         <v>0</v>
@@ -19748,7 +19748,7 @@
     </row>
     <row r="373" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B373" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D373" s="25"/>
       <c r="I373" s="36" t="s">
@@ -19786,7 +19786,7 @@
     </row>
     <row r="374" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B374" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D374" s="25"/>
       <c r="I374" s="36" t="s">
@@ -19824,7 +19824,7 @@
     </row>
     <row r="375" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B375" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D375" s="25"/>
       <c r="I375" s="36" t="s">
@@ -19851,10 +19851,10 @@
       <c r="O375" s="62"/>
       <c r="P375" s="39"/>
       <c r="Q375" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R375" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S375" s="7"/>
       <c r="T375" s="7"/>
@@ -19866,7 +19866,7 @@
     </row>
     <row r="376" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B376" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D376" s="25"/>
       <c r="I376" s="36" t="s">
@@ -19904,7 +19904,7 @@
     </row>
     <row r="377" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B377" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D377" s="25"/>
       <c r="I377" s="36" t="s">
@@ -19942,7 +19942,7 @@
     </row>
     <row r="378" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B378" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D378" s="25"/>
       <c r="I378" s="36" t="s">
@@ -19980,7 +19980,7 @@
     </row>
     <row r="379" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B379" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D379" s="25"/>
       <c r="I379" s="36" t="s">
@@ -20018,7 +20018,7 @@
     </row>
     <row r="380" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B380" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D380" s="25"/>
       <c r="I380" s="36" t="s">
@@ -20056,7 +20056,7 @@
     </row>
     <row r="381" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B381" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D381" s="25"/>
       <c r="I381" s="36" t="s">
@@ -20083,10 +20083,10 @@
       <c r="O381" s="62"/>
       <c r="P381" s="39"/>
       <c r="Q381" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R381" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S381" s="7"/>
       <c r="T381" s="7"/>
@@ -20098,7 +20098,7 @@
     </row>
     <row r="382" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B382" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D382" s="25"/>
       <c r="I382" s="36" t="s">
@@ -20136,7 +20136,7 @@
     </row>
     <row r="383" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B383" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D383" s="25"/>
       <c r="I383" s="36" t="s">
@@ -20178,7 +20178,7 @@
     </row>
     <row r="384" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B384" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D384" s="25"/>
       <c r="I384" s="36" t="s">
@@ -20220,7 +20220,7 @@
     </row>
     <row r="385" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B385" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D385" s="25"/>
       <c r="I385" s="36" t="s">
@@ -20258,7 +20258,7 @@
     </row>
     <row r="386" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B386" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D386" s="25"/>
       <c r="I386" s="36" t="s">
@@ -20296,7 +20296,7 @@
     </row>
     <row r="387" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B387" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D387" s="25"/>
       <c r="I387" s="36" t="s">
@@ -20323,10 +20323,10 @@
       <c r="O387" s="7"/>
       <c r="P387" s="39"/>
       <c r="Q387" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R387" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S387" s="7"/>
       <c r="T387" s="7"/>
@@ -20338,7 +20338,7 @@
     </row>
     <row r="388" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B388" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D388" s="25"/>
       <c r="I388" s="36" t="s">
@@ -20376,7 +20376,7 @@
     </row>
     <row r="389" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B389" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D389" s="25"/>
       <c r="I389" s="36" t="s">
@@ -20418,7 +20418,7 @@
     </row>
     <row r="390" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B390" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D390" s="25"/>
       <c r="I390" s="36" t="s">
@@ -20460,7 +20460,7 @@
     </row>
     <row r="391" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B391" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D391" s="25"/>
       <c r="I391" s="36" t="s">
@@ -20498,7 +20498,7 @@
     </row>
     <row r="392" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B392" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D392" s="25"/>
       <c r="I392" s="36" t="s">
@@ -20536,7 +20536,7 @@
     </row>
     <row r="393" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B393" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D393" s="25"/>
       <c r="I393" s="36" t="s">
@@ -20563,10 +20563,10 @@
       <c r="O393" s="62"/>
       <c r="P393" s="39"/>
       <c r="Q393" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R393" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S393" s="7"/>
       <c r="T393" s="7"/>
@@ -20578,7 +20578,7 @@
     </row>
     <row r="394" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B394" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D394" s="25"/>
       <c r="I394" s="36" t="s">
@@ -20616,7 +20616,7 @@
     </row>
     <row r="395" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B395" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D395" s="25"/>
       <c r="I395" s="36" t="s">
@@ -20654,7 +20654,7 @@
     </row>
     <row r="396" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B396" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D396" s="25"/>
       <c r="I396" s="36" t="s">
@@ -20696,7 +20696,7 @@
     </row>
     <row r="397" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B397" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D397" s="25"/>
       <c r="I397" s="36" t="s">
@@ -20734,7 +20734,7 @@
     </row>
     <row r="398" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B398" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D398" s="25"/>
       <c r="I398" s="36" t="s">
@@ -20772,7 +20772,7 @@
     </row>
     <row r="399" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B399" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D399" s="25"/>
       <c r="I399" s="36" t="s">
@@ -20799,10 +20799,10 @@
       <c r="O399" s="7"/>
       <c r="P399" s="39"/>
       <c r="Q399" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R399" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S399" s="7"/>
       <c r="T399" s="7"/>
@@ -20814,7 +20814,7 @@
     </row>
     <row r="400" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B400" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D400" s="25"/>
       <c r="I400" s="36" t="s">
@@ -20852,13 +20852,13 @@
     </row>
     <row r="401" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B401" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D401" s="71" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="H401" s="68" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="I401" s="36" t="s">
         <v>40</v>
@@ -20888,7 +20888,7 @@
       <c r="S401" s="7"/>
       <c r="T401" s="7"/>
       <c r="U401" s="7" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="V401" s="40"/>
       <c r="W401" s="8"/>
@@ -20897,11 +20897,11 @@
     </row>
     <row r="402" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B402" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D402" s="25"/>
       <c r="H402" s="56" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="I402" s="36" t="s">
         <v>40</v>
@@ -20942,11 +20942,11 @@
     </row>
     <row r="403" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B403" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D403" s="25"/>
       <c r="H403" s="56" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="I403" s="36" t="s">
         <v>40</v>
@@ -20983,11 +20983,11 @@
     </row>
     <row r="404" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B404" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D404" s="25"/>
       <c r="H404" s="56" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="I404" s="36" t="s">
         <v>40</v>
@@ -21024,11 +21024,11 @@
     </row>
     <row r="405" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B405" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D405" s="67"/>
       <c r="H405" s="56" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="I405" s="36" t="s">
         <v>40</v>
@@ -21069,7 +21069,7 @@
     </row>
     <row r="406" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B406" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D406" s="25"/>
       <c r="I406" s="36" t="s">
@@ -21105,7 +21105,7 @@
     </row>
     <row r="407" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B407" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D407" s="25"/>
       <c r="I407" s="36" t="s">
@@ -21147,7 +21147,7 @@
     </row>
     <row r="408" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B408" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D408" s="25"/>
       <c r="I408" s="36" t="s">
@@ -21169,7 +21169,7 @@
         <v>3</v>
       </c>
       <c r="N408" s="16" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="O408" s="62" t="s">
         <v>0</v>
@@ -21189,7 +21189,7 @@
     </row>
     <row r="409" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B409" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D409" s="25"/>
       <c r="I409" s="36" t="s">
@@ -21227,7 +21227,7 @@
     </row>
     <row r="410" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B410" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D410" s="25"/>
       <c r="I410" s="36" t="s">
@@ -21265,7 +21265,7 @@
     </row>
     <row r="411" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B411" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D411" s="25"/>
       <c r="I411" s="36" t="s">
@@ -21292,10 +21292,10 @@
       <c r="O411" s="7"/>
       <c r="P411" s="39"/>
       <c r="Q411" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R411" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S411" s="7"/>
       <c r="T411" s="7"/>
@@ -21307,7 +21307,7 @@
     </row>
     <row r="412" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B412" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D412" s="25"/>
       <c r="I412" s="36" t="s">
@@ -21345,7 +21345,7 @@
     </row>
     <row r="413" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B413" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D413" s="25"/>
       <c r="I413" s="36" t="s">
@@ -21383,7 +21383,7 @@
     </row>
     <row r="414" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B414" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D414" s="25"/>
       <c r="I414" s="36" t="s">
@@ -21421,7 +21421,7 @@
     </row>
     <row r="415" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B415" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D415" s="25"/>
       <c r="I415" s="36" t="s">
@@ -21459,7 +21459,7 @@
     </row>
     <row r="416" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B416" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D416" s="25"/>
       <c r="I416" s="36" t="s">
@@ -21497,7 +21497,7 @@
     </row>
     <row r="417" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B417" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D417" s="25"/>
       <c r="I417" s="36" t="s">
@@ -21524,10 +21524,10 @@
       <c r="O417" s="7"/>
       <c r="P417" s="39"/>
       <c r="Q417" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R417" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S417" s="7"/>
       <c r="T417" s="7"/>
@@ -21539,7 +21539,7 @@
     </row>
     <row r="418" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B418" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D418" s="25"/>
       <c r="I418" s="36" t="s">
@@ -21577,7 +21577,7 @@
     </row>
     <row r="419" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B419" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D419" s="25"/>
       <c r="I419" s="36" t="s">
@@ -21615,7 +21615,7 @@
     </row>
     <row r="420" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B420" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D420" s="25"/>
       <c r="I420" s="36" t="s">
@@ -21657,7 +21657,7 @@
     </row>
     <row r="421" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B421" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D421" s="25"/>
       <c r="I421" s="36" t="s">
@@ -21695,7 +21695,7 @@
     </row>
     <row r="422" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B422" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D422" s="25"/>
       <c r="I422" s="36" t="s">
@@ -21733,7 +21733,7 @@
     </row>
     <row r="423" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B423" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D423" s="25"/>
       <c r="I423" s="36" t="s">
@@ -21760,10 +21760,10 @@
       <c r="O423" s="62"/>
       <c r="P423" s="39"/>
       <c r="Q423" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R423" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S423" s="7"/>
       <c r="T423" s="7"/>
@@ -21775,7 +21775,7 @@
     </row>
     <row r="424" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B424" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D424" s="25"/>
       <c r="I424" s="36" t="s">
@@ -21813,7 +21813,7 @@
     </row>
     <row r="425" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B425" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D425" s="25"/>
       <c r="I425" s="36" t="s">
@@ -21851,7 +21851,7 @@
     </row>
     <row r="426" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B426" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D426" s="25"/>
       <c r="I426" s="36" t="s">
@@ -21893,7 +21893,7 @@
     </row>
     <row r="427" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B427" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D427" s="25"/>
       <c r="I427" s="36" t="s">
@@ -21931,7 +21931,7 @@
     </row>
     <row r="428" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B428" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D428" s="25"/>
       <c r="I428" s="36" t="s">
@@ -21969,7 +21969,7 @@
     </row>
     <row r="429" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B429" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D429" s="25"/>
       <c r="I429" s="36" t="s">
@@ -21996,10 +21996,10 @@
       <c r="O429" s="62"/>
       <c r="P429" s="39"/>
       <c r="Q429" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R429" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S429" s="7"/>
       <c r="T429" s="7"/>
@@ -22011,7 +22011,7 @@
     </row>
     <row r="430" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B430" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D430" s="25"/>
       <c r="I430" s="36" t="s">
@@ -22049,7 +22049,7 @@
     </row>
     <row r="431" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B431" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D431" s="25"/>
       <c r="I431" s="36" t="s">
@@ -22087,7 +22087,7 @@
     </row>
     <row r="432" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B432" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D432" s="25"/>
       <c r="I432" s="36" t="s">
@@ -22129,7 +22129,7 @@
     </row>
     <row r="433" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B433" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D433" s="25"/>
       <c r="I433" s="36" t="s">
@@ -22167,7 +22167,7 @@
     </row>
     <row r="434" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B434" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D434" s="25"/>
       <c r="I434" s="36" t="s">
@@ -22205,7 +22205,7 @@
     </row>
     <row r="435" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B435" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D435" s="25"/>
       <c r="I435" s="36" t="s">
@@ -22232,10 +22232,10 @@
       <c r="O435" s="62"/>
       <c r="P435" s="39"/>
       <c r="Q435" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R435" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S435" s="7"/>
       <c r="T435" s="7"/>
@@ -22247,7 +22247,7 @@
     </row>
     <row r="436" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B436" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D436" s="25"/>
       <c r="I436" s="36" t="s">
@@ -22285,7 +22285,7 @@
     </row>
     <row r="437" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B437" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D437" s="25"/>
       <c r="I437" s="36" t="s">
@@ -22327,7 +22327,7 @@
     </row>
     <row r="438" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B438" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D438" s="25"/>
       <c r="I438" s="36" t="s">
@@ -22369,7 +22369,7 @@
     </row>
     <row r="439" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B439" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D439" s="25"/>
       <c r="I439" s="36" t="s">
@@ -22407,7 +22407,7 @@
     </row>
     <row r="440" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B440" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D440" s="25"/>
       <c r="I440" s="36" t="s">
@@ -22445,7 +22445,7 @@
     </row>
     <row r="441" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B441" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D441" s="25"/>
       <c r="I441" s="36" t="s">
@@ -22472,10 +22472,10 @@
       <c r="O441" s="7"/>
       <c r="P441" s="39"/>
       <c r="Q441" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R441" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S441" s="7"/>
       <c r="T441" s="7"/>
@@ -22487,7 +22487,7 @@
     </row>
     <row r="442" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B442" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D442" s="25"/>
       <c r="I442" s="36" t="s">
@@ -22525,7 +22525,7 @@
     </row>
     <row r="443" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B443" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D443" s="25"/>
       <c r="I443" s="36" t="s">
@@ -22567,7 +22567,7 @@
     </row>
     <row r="444" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B444" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D444" s="25"/>
       <c r="I444" s="36" t="s">
@@ -22605,7 +22605,7 @@
     </row>
     <row r="445" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B445" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D445" s="25"/>
       <c r="I445" s="36" t="s">
@@ -22643,7 +22643,7 @@
     </row>
     <row r="446" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B446" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D446" s="25"/>
       <c r="I446" s="36" t="s">
@@ -22681,7 +22681,7 @@
     </row>
     <row r="447" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B447" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D447" s="25"/>
       <c r="I447" s="36" t="s">
@@ -22708,10 +22708,10 @@
       <c r="O447" s="62"/>
       <c r="P447" s="39"/>
       <c r="Q447" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R447" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S447" s="7"/>
       <c r="T447" s="7"/>
@@ -22723,7 +22723,7 @@
     </row>
     <row r="448" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B448" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D448" s="25"/>
       <c r="I448" s="36" t="s">
@@ -22761,7 +22761,7 @@
     </row>
     <row r="449" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B449" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D449" s="25"/>
       <c r="I449" s="36" t="s">
@@ -22803,7 +22803,7 @@
     </row>
     <row r="450" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B450" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D450" s="25"/>
       <c r="I450" s="36" t="s">
@@ -22841,7 +22841,7 @@
     </row>
     <row r="451" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B451" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D451" s="25"/>
       <c r="I451" s="36" t="s">
@@ -22879,7 +22879,7 @@
     </row>
     <row r="452" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B452" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D452" s="25"/>
       <c r="I452" s="36" t="s">
@@ -22917,7 +22917,7 @@
     </row>
     <row r="453" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B453" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D453" s="25"/>
       <c r="I453" s="36" t="s">
@@ -22944,10 +22944,10 @@
       <c r="O453" s="62"/>
       <c r="P453" s="39"/>
       <c r="Q453" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R453" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S453" s="7"/>
       <c r="T453" s="7"/>
@@ -22959,7 +22959,7 @@
     </row>
     <row r="454" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B454" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D454" s="25"/>
       <c r="I454" s="36" t="s">
@@ -22997,7 +22997,7 @@
     </row>
     <row r="455" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B455" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D455" s="25"/>
       <c r="I455" s="36" t="s">
@@ -23035,7 +23035,7 @@
     </row>
     <row r="456" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B456" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D456" s="25"/>
       <c r="I456" s="36" t="s">
@@ -23076,7 +23076,7 @@
     </row>
     <row r="457" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B457" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D457" s="25"/>
       <c r="I457" s="36" t="s">
@@ -23114,7 +23114,7 @@
     </row>
     <row r="458" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B458" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D458" s="25"/>
       <c r="I458" s="36" t="s">
@@ -23152,7 +23152,7 @@
     </row>
     <row r="459" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B459" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D459" s="25"/>
       <c r="I459" s="36" t="s">
@@ -23179,10 +23179,10 @@
       <c r="O459" s="62"/>
       <c r="P459" s="39"/>
       <c r="Q459" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R459" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S459" s="7"/>
       <c r="T459" s="7"/>
@@ -23194,7 +23194,7 @@
     </row>
     <row r="460" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B460" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D460" s="25"/>
       <c r="E460" s="55"/>
@@ -23233,7 +23233,7 @@
     </row>
     <row r="461" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B461" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D461" s="25"/>
       <c r="E461" s="55"/>
@@ -23272,7 +23272,7 @@
     </row>
     <row r="462" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B462" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D462" s="25"/>
       <c r="I462" s="36" t="s">
@@ -23314,7 +23314,7 @@
     </row>
     <row r="463" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B463" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D463" s="25"/>
       <c r="I463" s="36" t="s">
@@ -23352,7 +23352,7 @@
     </row>
     <row r="464" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B464" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D464" s="25"/>
       <c r="I464" s="36" t="s">
@@ -23390,7 +23390,7 @@
     </row>
     <row r="465" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B465" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D465" s="25"/>
       <c r="I465" s="36" t="s">
@@ -23417,10 +23417,10 @@
       <c r="O465" s="62"/>
       <c r="P465" s="39"/>
       <c r="Q465" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R465" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S465" s="7"/>
       <c r="T465" s="7"/>
@@ -23432,7 +23432,7 @@
     </row>
     <row r="466" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B466" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D466" s="25"/>
       <c r="I466" s="36" t="s">
@@ -23470,7 +23470,7 @@
     </row>
     <row r="467" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B467" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D467" s="25"/>
       <c r="I467" s="36" t="s">
@@ -23512,7 +23512,7 @@
     </row>
     <row r="468" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B468" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D468" s="25"/>
       <c r="I468" s="36" t="s">
@@ -23554,7 +23554,7 @@
     </row>
     <row r="469" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B469" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D469" s="25"/>
       <c r="I469" s="36" t="s">
@@ -23592,7 +23592,7 @@
     </row>
     <row r="470" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B470" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D470" s="25"/>
       <c r="I470" s="36" t="s">
@@ -23630,7 +23630,7 @@
     </row>
     <row r="471" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B471" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D471" s="25"/>
       <c r="I471" s="36" t="s">
@@ -23657,10 +23657,10 @@
       <c r="O471" s="62"/>
       <c r="P471" s="39"/>
       <c r="Q471" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R471" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S471" s="7"/>
       <c r="T471" s="7"/>
@@ -23672,7 +23672,7 @@
     </row>
     <row r="472" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B472" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D472" s="25"/>
       <c r="I472" s="36" t="s">
@@ -23710,7 +23710,7 @@
     </row>
     <row r="473" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B473" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D473" s="25"/>
       <c r="I473" s="36" t="s">
@@ -23752,7 +23752,7 @@
     </row>
     <row r="474" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B474" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D474" s="25"/>
       <c r="I474" s="36" t="s">
@@ -23774,7 +23774,7 @@
         <v>69</v>
       </c>
       <c r="N474" s="16" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="O474" s="62" t="s">
         <v>0</v>
@@ -23794,7 +23794,7 @@
     </row>
     <row r="475" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B475" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D475" s="25"/>
       <c r="I475" s="36" t="s">
@@ -23832,7 +23832,7 @@
     </row>
     <row r="476" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B476" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D476" s="25"/>
       <c r="I476" s="36" t="s">
@@ -23870,7 +23870,7 @@
     </row>
     <row r="477" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B477" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D477" s="25"/>
       <c r="I477" s="36" t="s">
@@ -23897,10 +23897,10 @@
       <c r="O477" s="62"/>
       <c r="P477" s="39"/>
       <c r="Q477" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R477" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S477" s="7"/>
       <c r="T477" s="7"/>
@@ -23912,7 +23912,7 @@
     </row>
     <row r="478" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B478" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D478" s="25"/>
       <c r="I478" s="36" t="s">
@@ -23950,7 +23950,7 @@
     </row>
     <row r="479" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B479" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D479" s="25"/>
       <c r="I479" s="36" t="s">
@@ -23988,7 +23988,7 @@
     </row>
     <row r="480" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B480" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D480" s="25"/>
       <c r="I480" s="36" t="s">
@@ -24026,7 +24026,7 @@
     </row>
     <row r="481" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B481" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D481" s="25"/>
       <c r="I481" s="36" t="s">
@@ -24064,7 +24064,7 @@
     </row>
     <row r="482" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B482" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D482" s="25"/>
       <c r="I482" s="36" t="s">
@@ -24102,7 +24102,7 @@
     </row>
     <row r="483" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B483" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D483" s="25"/>
       <c r="I483" s="36" t="s">
@@ -24129,10 +24129,10 @@
       <c r="O483" s="62"/>
       <c r="P483" s="39"/>
       <c r="Q483" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R483" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S483" s="7"/>
       <c r="T483" s="7"/>
@@ -24144,7 +24144,7 @@
     </row>
     <row r="484" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B484" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D484" s="25"/>
       <c r="I484" s="36" t="s">
@@ -24182,7 +24182,7 @@
     </row>
     <row r="485" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B485" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D485" s="25"/>
       <c r="I485" s="36" t="s">
@@ -24220,7 +24220,7 @@
     </row>
     <row r="486" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B486" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D486" s="25"/>
       <c r="I486" s="36" t="s">
@@ -24258,7 +24258,7 @@
     </row>
     <row r="487" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B487" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D487" s="25"/>
       <c r="I487" s="36" t="s">
@@ -24296,7 +24296,7 @@
     </row>
     <row r="488" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B488" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D488" s="25"/>
       <c r="I488" s="36" t="s">
@@ -24334,7 +24334,7 @@
     </row>
     <row r="489" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B489" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D489" s="25"/>
       <c r="I489" s="36" t="s">
@@ -24361,10 +24361,10 @@
       <c r="O489" s="62"/>
       <c r="P489" s="39"/>
       <c r="Q489" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R489" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S489" s="7"/>
       <c r="T489" s="7"/>
@@ -24376,7 +24376,7 @@
     </row>
     <row r="490" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B490" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D490" s="25"/>
       <c r="I490" s="36" t="s">
@@ -24414,7 +24414,7 @@
     </row>
     <row r="491" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B491" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D491" s="25"/>
       <c r="I491" s="36" t="s">
@@ -24436,7 +24436,7 @@
         <v>86</v>
       </c>
       <c r="N491" s="16" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="O491" s="62" t="s">
         <v>0</v>
@@ -24448,7 +24448,7 @@
       <c r="T491" s="7"/>
       <c r="U491" s="7"/>
       <c r="V491" s="18" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="W491" s="8"/>
       <c r="X491" s="8"/>
@@ -24456,7 +24456,7 @@
     </row>
     <row r="492" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B492" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D492" s="25"/>
       <c r="I492" s="36" t="s">
@@ -24498,7 +24498,7 @@
     </row>
     <row r="493" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B493" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D493" s="25"/>
       <c r="I493" s="36" t="s">
@@ -24536,7 +24536,7 @@
     </row>
     <row r="494" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B494" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D494" s="25"/>
       <c r="I494" s="36" t="s">
@@ -24574,7 +24574,7 @@
     </row>
     <row r="495" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B495" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D495" s="25"/>
       <c r="I495" s="36" t="s">
@@ -24601,10 +24601,10 @@
       <c r="O495" s="7"/>
       <c r="P495" s="39"/>
       <c r="Q495" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R495" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S495" s="7"/>
       <c r="T495" s="7"/>
@@ -24616,7 +24616,7 @@
     </row>
     <row r="496" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B496" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D496" s="25"/>
       <c r="I496" s="36" t="s">
@@ -24654,7 +24654,7 @@
     </row>
     <row r="497" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B497" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D497" s="25"/>
       <c r="I497" s="36" t="s">
@@ -24696,7 +24696,7 @@
     </row>
     <row r="498" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B498" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D498" s="25"/>
       <c r="I498" s="36" t="s">
@@ -24738,7 +24738,7 @@
     </row>
     <row r="499" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B499" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D499" s="25"/>
       <c r="I499" s="36" t="s">
@@ -24776,7 +24776,7 @@
     </row>
     <row r="500" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B500" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D500" s="25"/>
       <c r="I500" s="36" t="s">
@@ -24814,7 +24814,7 @@
     </row>
     <row r="501" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B501" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D501" s="25"/>
       <c r="I501" s="36" t="s">
@@ -24841,10 +24841,10 @@
       <c r="O501" s="7"/>
       <c r="P501" s="39"/>
       <c r="Q501" s="7" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R501" s="7" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="S501" s="7"/>
       <c r="T501" s="7"/>
@@ -24856,7 +24856,7 @@
     </row>
     <row r="502" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B502" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D502" s="25"/>
       <c r="I502" s="36" t="s">
@@ -24894,7 +24894,7 @@
     </row>
     <row r="503" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B503" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D503" s="25"/>
       <c r="I503" s="36" t="s">
@@ -24936,7 +24936,7 @@
     </row>
     <row r="504" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B504" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D504" s="25"/>
       <c r="I504" s="36" t="s">
@@ -24978,7 +24978,7 @@
     </row>
     <row r="505" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B505" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D505" s="25"/>
       <c r="I505" s="36" t="s">
@@ -25016,7 +25016,7 @@
     </row>
     <row r="506" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B506" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D506" s="25"/>
       <c r="I506" s="36" t="s">
@@ -25054,7 +25054,7 @@
     </row>
     <row r="507" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B507" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D507" s="25"/>
       <c r="I507" s="36" t="s">
@@ -25096,7 +25096,7 @@
     </row>
     <row r="508" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B508" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D508" s="25"/>
       <c r="I508" s="36" t="s">
@@ -25132,7 +25132,7 @@
     </row>
     <row r="509" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B509" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D509" s="25"/>
       <c r="I509" s="36" t="s">
@@ -25170,7 +25170,7 @@
     </row>
     <row r="510" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B510" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D510" s="25"/>
       <c r="I510" s="36" t="s">
@@ -25208,7 +25208,7 @@
     </row>
     <row r="511" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B511" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D511" s="25"/>
       <c r="I511" s="36" t="s">
@@ -25246,7 +25246,7 @@
     </row>
     <row r="512" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B512" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D512" s="25"/>
       <c r="I512" s="36" t="s">
@@ -25284,7 +25284,7 @@
     </row>
     <row r="513" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B513" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D513" s="25"/>
       <c r="I513" s="36" t="s">
@@ -25322,7 +25322,7 @@
     </row>
     <row r="514" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B514" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D514" s="25"/>
       <c r="I514" s="36" t="s">
@@ -25360,7 +25360,7 @@
     </row>
     <row r="515" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B515" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D515" s="25"/>
       <c r="I515" s="36" t="s">
@@ -25398,7 +25398,7 @@
     </row>
     <row r="516" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B516" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D516" s="25"/>
       <c r="I516" s="36" t="s">
@@ -25440,7 +25440,7 @@
     </row>
     <row r="517" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B517" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D517" s="25"/>
       <c r="I517" s="36" t="s">
@@ -25478,7 +25478,7 @@
     </row>
     <row r="518" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B518" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D518" s="25"/>
       <c r="I518" s="36" t="s">
@@ -25516,7 +25516,7 @@
     </row>
     <row r="519" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B519" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D519" s="25"/>
       <c r="I519" s="36" t="s">
@@ -25558,7 +25558,7 @@
     </row>
     <row r="520" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B520" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D520" s="25"/>
       <c r="I520" s="36" t="s">
@@ -25596,7 +25596,7 @@
     </row>
     <row r="521" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B521" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D521" s="25"/>
       <c r="I521" s="36" t="s">
@@ -25638,7 +25638,7 @@
     </row>
     <row r="522" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B522" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D522" s="25"/>
       <c r="I522" s="36" t="s">
@@ -25676,7 +25676,7 @@
     </row>
     <row r="523" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B523" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D523" s="25"/>
       <c r="I523" s="36" t="s">
@@ -25714,7 +25714,7 @@
     </row>
     <row r="524" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B524" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D524" s="25"/>
       <c r="I524" s="36" t="s">
@@ -25752,7 +25752,7 @@
     </row>
     <row r="525" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B525" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D525" s="25"/>
       <c r="I525" s="36" t="s">
@@ -25790,7 +25790,7 @@
     </row>
     <row r="526" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B526" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D526" s="25"/>
       <c r="I526" s="36" t="s">
@@ -25832,7 +25832,7 @@
     </row>
     <row r="527" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B527" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D527" s="25"/>
       <c r="I527" s="36" t="s">
@@ -25870,7 +25870,7 @@
     </row>
     <row r="528" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B528" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D528" s="25"/>
       <c r="I528" s="36" t="s">
@@ -25908,7 +25908,7 @@
     </row>
     <row r="529" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B529" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D529" s="25"/>
       <c r="I529" s="36" t="s">
@@ -25950,7 +25950,7 @@
     </row>
     <row r="530" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B530" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D530" s="25"/>
       <c r="I530" s="36" t="s">
@@ -25988,7 +25988,7 @@
     </row>
     <row r="531" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B531" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D531" s="25"/>
       <c r="I531" s="36" t="s">
@@ -26030,7 +26030,7 @@
     </row>
     <row r="532" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B532" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D532" s="25"/>
       <c r="I532" s="36" t="s">
@@ -26068,7 +26068,7 @@
     </row>
     <row r="533" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B533" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D533" s="25"/>
       <c r="I533" s="36" t="s">
@@ -26106,7 +26106,7 @@
     </row>
     <row r="534" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B534" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D534" s="25"/>
       <c r="I534" s="36" t="s">
@@ -26144,7 +26144,7 @@
     </row>
     <row r="535" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B535" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D535" s="25"/>
       <c r="I535" s="36" t="s">
@@ -26182,7 +26182,7 @@
     </row>
     <row r="536" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B536" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D536" s="25"/>
       <c r="I536" s="36" t="s">
@@ -26224,7 +26224,7 @@
     </row>
     <row r="537" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B537" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D537" s="25"/>
       <c r="I537" s="36" t="s">
@@ -26262,7 +26262,7 @@
     </row>
     <row r="538" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B538" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D538" s="25"/>
       <c r="I538" s="36" t="s">
@@ -26300,7 +26300,7 @@
     </row>
     <row r="539" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B539" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D539" s="25"/>
       <c r="I539" s="36" t="s">
@@ -26342,7 +26342,7 @@
     </row>
     <row r="540" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B540" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D540" s="25"/>
       <c r="I540" s="36" t="s">
@@ -26380,7 +26380,7 @@
     </row>
     <row r="541" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B541" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D541" s="25"/>
       <c r="I541" s="36" t="s">
@@ -26402,7 +26402,7 @@
         <v>34</v>
       </c>
       <c r="N541" s="16" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="O541" s="62" t="s">
         <v>0</v>
@@ -26414,7 +26414,7 @@
       <c r="T541" s="7"/>
       <c r="U541" s="7"/>
       <c r="V541" s="40" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="W541" s="8"/>
       <c r="X541" s="8"/>
@@ -26422,7 +26422,7 @@
     </row>
     <row r="542" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B542" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D542" s="25"/>
       <c r="I542" s="36" t="s">
@@ -26460,7 +26460,7 @@
     </row>
     <row r="543" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B543" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D543" s="25"/>
       <c r="I543" s="36" t="s">
@@ -26498,7 +26498,7 @@
     </row>
     <row r="544" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B544" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D544" s="25"/>
       <c r="I544" s="36" t="s">
@@ -26536,7 +26536,7 @@
     </row>
     <row r="545" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B545" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D545" s="25"/>
       <c r="I545" s="36" t="s">
@@ -26574,7 +26574,7 @@
     </row>
     <row r="546" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B546" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D546" s="25"/>
       <c r="I546" s="36" t="s">
@@ -26612,7 +26612,7 @@
     </row>
     <row r="547" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B547" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D547" s="25"/>
       <c r="I547" s="36" t="s">
@@ -26650,7 +26650,7 @@
     </row>
     <row r="548" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B548" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D548" s="25"/>
       <c r="I548" s="36" t="s">
@@ -26688,7 +26688,7 @@
     </row>
     <row r="549" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B549" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D549" s="25"/>
       <c r="I549" s="36" t="s">
@@ -26726,7 +26726,7 @@
     </row>
     <row r="550" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B550" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D550" s="25"/>
       <c r="I550" s="36" t="s">
@@ -26764,7 +26764,7 @@
     </row>
     <row r="551" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B551" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D551" s="25"/>
       <c r="I551" s="36" t="s">
@@ -26786,7 +26786,7 @@
         <v>44</v>
       </c>
       <c r="N551" s="16" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="O551" s="7"/>
       <c r="P551" s="39"/>
@@ -26802,7 +26802,7 @@
     </row>
     <row r="552" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B552" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D552" s="25"/>
       <c r="I552" s="36" t="s">
@@ -26840,7 +26840,7 @@
     </row>
     <row r="553" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B553" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D553" s="25"/>
       <c r="I553" s="36" t="s">
@@ -26878,7 +26878,7 @@
     </row>
     <row r="554" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B554" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D554" s="25"/>
       <c r="I554" s="36" t="s">
@@ -26916,7 +26916,7 @@
     </row>
     <row r="555" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B555" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D555" s="25"/>
       <c r="I555" s="36" t="s">
@@ -26954,7 +26954,7 @@
     </row>
     <row r="556" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B556" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D556" s="25"/>
       <c r="I556" s="36" t="s">
@@ -26996,7 +26996,7 @@
     </row>
     <row r="557" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B557" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D557" s="25"/>
       <c r="I557" s="36" t="s">
@@ -27034,7 +27034,7 @@
     </row>
     <row r="558" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B558" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D558" s="25"/>
       <c r="I558" s="36" t="s">
@@ -27071,10 +27071,10 @@
     </row>
     <row r="559" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B559" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D559" s="71" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="I559" s="36" t="s">
         <v>36</v>
@@ -27104,7 +27104,7 @@
       <c r="S559" s="7"/>
       <c r="T559" s="7"/>
       <c r="U559" s="7" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="V559" s="40"/>
       <c r="W559" s="8"/>
@@ -27113,7 +27113,7 @@
     </row>
     <row r="560" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B560" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D560" s="25"/>
       <c r="I560" s="36" t="s">
@@ -27151,7 +27151,7 @@
     </row>
     <row r="561" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B561" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D561" s="25"/>
       <c r="I561" s="36" t="s">
@@ -27189,7 +27189,7 @@
     </row>
     <row r="562" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B562" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D562" s="25"/>
       <c r="I562" s="36" t="s">
@@ -27227,7 +27227,7 @@
     </row>
     <row r="563" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B563" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D563" s="25"/>
       <c r="I563" s="36" t="s">
@@ -27265,7 +27265,7 @@
     </row>
     <row r="564" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B564" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D564" s="25"/>
       <c r="I564" s="36" t="s">
@@ -27303,7 +27303,7 @@
     </row>
     <row r="565" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B565" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D565" s="25"/>
       <c r="I565" s="36" t="s">
@@ -27341,7 +27341,7 @@
     </row>
     <row r="566" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B566" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D566" s="25"/>
       <c r="I566" s="36" t="s">
@@ -27379,7 +27379,7 @@
     </row>
     <row r="567" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B567" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D567" s="25"/>
       <c r="I567" s="36" t="s">
@@ -27417,7 +27417,7 @@
     </row>
     <row r="568" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B568" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D568" s="25"/>
       <c r="I568" s="36" t="s">
@@ -27455,7 +27455,7 @@
     </row>
     <row r="569" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B569" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D569" s="25"/>
       <c r="I569" s="36" t="s">
@@ -27493,7 +27493,7 @@
     </row>
     <row r="570" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B570" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D570" s="25"/>
       <c r="I570" s="36" t="s">
@@ -27531,7 +27531,7 @@
     </row>
     <row r="571" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B571" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D571" s="25"/>
       <c r="I571" s="36" t="s">
@@ -27569,7 +27569,7 @@
     </row>
     <row r="572" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B572" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D572" s="25"/>
       <c r="I572" s="36" t="s">
@@ -27607,7 +27607,7 @@
     </row>
     <row r="573" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B573" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D573" s="25"/>
       <c r="I573" s="36" t="s">
@@ -27645,7 +27645,7 @@
     </row>
     <row r="574" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B574" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D574" s="25"/>
       <c r="I574" s="36" t="s">
@@ -27683,7 +27683,7 @@
     </row>
     <row r="575" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B575" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D575" s="25"/>
       <c r="I575" s="36" t="s">
@@ -27721,7 +27721,7 @@
     </row>
     <row r="576" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B576" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D576" s="25"/>
       <c r="I576" s="36" t="s">
@@ -27743,7 +27743,7 @@
         <v>69</v>
       </c>
       <c r="N576" s="16" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="O576" s="7" t="s">
         <v>0</v>
@@ -27763,7 +27763,7 @@
     </row>
     <row r="577" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B577" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D577" s="25"/>
       <c r="I577" s="36" t="s">
@@ -27801,7 +27801,7 @@
     </row>
     <row r="578" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B578" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D578" s="25"/>
       <c r="I578" s="36" t="s">
@@ -27839,7 +27839,7 @@
     </row>
     <row r="579" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B579" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D579" s="25"/>
       <c r="I579" s="36" t="s">
@@ -27877,7 +27877,7 @@
     </row>
     <row r="580" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B580" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D580" s="25"/>
       <c r="I580" s="36" t="s">
@@ -27915,7 +27915,7 @@
     </row>
     <row r="581" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B581" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D581" s="25"/>
       <c r="I581" s="36" t="s">
@@ -27953,7 +27953,7 @@
     </row>
     <row r="582" spans="2:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B582" s="57" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D582" s="25"/>
       <c r="I582" s="36" t="s">
@@ -27987,7 +27987,7 @@
       <c r="T582" s="7"/>
       <c r="U582" s="7"/>
       <c r="V582" s="40" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="W582" s="8"/>
       <c r="X582" s="8"/>
@@ -28405,7 +28405,7 @@
         <v>12</v>
       </c>
       <c r="N594" s="16" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="O594" s="62"/>
       <c r="P594" s="39"/>
@@ -28654,7 +28654,7 @@
         <v>19</v>
       </c>
       <c r="N601" s="16" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="O601" s="7"/>
       <c r="P601" s="39"/>
@@ -29725,7 +29725,7 @@
       <c r="T631" s="7"/>
       <c r="U631" s="7"/>
       <c r="V631" s="51" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="W631" s="8"/>
       <c r="X631" s="8"/>
@@ -30656,7 +30656,7 @@
       <c r="T657" s="7"/>
       <c r="U657" s="7"/>
       <c r="V657" s="40" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="W657" s="8"/>
       <c r="X657" s="8"/>
@@ -32954,7 +32954,7 @@
         <v>67</v>
       </c>
       <c r="N724" s="16" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="P724" s="39"/>
       <c r="Q724" s="7"/>
@@ -33358,7 +33358,7 @@
         <v>79</v>
       </c>
       <c r="N736" s="16" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="O736" s="7" t="s">
         <v>0</v>
@@ -33408,7 +33408,7 @@
       <c r="T737" s="7"/>
       <c r="U737" s="7"/>
       <c r="V737" s="40" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="W737" s="8"/>
       <c r="X737" s="8"/>
@@ -34121,7 +34121,7 @@
     </row>
     <row r="759" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D759" s="71" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="I759" s="36" t="s">
         <v>31</v>
@@ -34153,7 +34153,7 @@
       <c r="S759" s="7"/>
       <c r="T759" s="7"/>
       <c r="U759" s="7" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="V759" s="16" t="s">
         <v>731</v>
@@ -34729,7 +34729,7 @@
         <v>39</v>
       </c>
       <c r="N776" s="16" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="O776" s="7" t="s">
         <v>0</v>
@@ -35514,7 +35514,7 @@
         <v>62</v>
       </c>
       <c r="N799" s="51" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O799" s="7" t="s">
         <v>0</v>
@@ -36150,7 +36150,7 @@
       <c r="T817" s="7"/>
       <c r="U817" s="7"/>
       <c r="V817" s="40" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="W817" s="8"/>
       <c r="X817" s="8"/>
@@ -36709,7 +36709,7 @@
         <v>17</v>
       </c>
       <c r="N834" s="16" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="O834" s="7" t="s">
         <v>0</v>
@@ -36721,7 +36721,7 @@
       <c r="T834" s="7"/>
       <c r="U834" s="7"/>
       <c r="V834" s="16" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="W834" s="8"/>
       <c r="X834" s="8"/>
@@ -37291,7 +37291,7 @@
         <v>34</v>
       </c>
       <c r="N851" s="16" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="O851" s="7" t="s">
         <v>0</v>
@@ -38320,8 +38320,8 @@
       <c r="S881" s="7"/>
       <c r="T881" s="7"/>
       <c r="U881" s="7"/>
-      <c r="V881" s="16" t="s">
-        <v>748</v>
+      <c r="V881" s="18" t="s">
+        <v>922</v>
       </c>
       <c r="W881" s="8"/>
       <c r="X881" s="8"/>
@@ -38426,8 +38426,8 @@
       <c r="S884" s="7"/>
       <c r="T884" s="7"/>
       <c r="U884" s="7"/>
-      <c r="V884" s="16" t="s">
-        <v>749</v>
+      <c r="V884" s="18" t="s">
+        <v>921</v>
       </c>
       <c r="W884" s="8"/>
       <c r="X884" s="8"/>
@@ -38498,8 +38498,8 @@
       <c r="S886" s="7"/>
       <c r="T886" s="7"/>
       <c r="U886" s="7"/>
-      <c r="V886" s="16" t="s">
-        <v>750</v>
+      <c r="V886" s="18" t="s">
+        <v>923</v>
       </c>
       <c r="W886" s="8"/>
       <c r="X886" s="8"/>
@@ -38760,7 +38760,7 @@
         <v>77</v>
       </c>
       <c r="N894" s="16" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="O894" s="62" t="s">
         <v>0</v>
@@ -38772,7 +38772,7 @@
       <c r="T894" s="7"/>
       <c r="U894" s="7"/>
       <c r="V894" s="16" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="W894" s="8"/>
       <c r="X894" s="8"/>
@@ -38843,7 +38843,7 @@
       <c r="T896" s="7"/>
       <c r="U896" s="7"/>
       <c r="V896" s="16" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="W896" s="8"/>
       <c r="X896" s="8"/>
@@ -38902,7 +38902,7 @@
         <v>81</v>
       </c>
       <c r="N898" s="16" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="O898" s="7" t="s">
         <v>0</v>
@@ -38914,7 +38914,7 @@
       <c r="T898" s="7"/>
       <c r="U898" s="7"/>
       <c r="V898" s="16" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="W898" s="8"/>
       <c r="X898" s="8"/>
@@ -38987,7 +38987,7 @@
       <c r="T900" s="7"/>
       <c r="U900" s="7"/>
       <c r="V900" s="16" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="W900" s="8"/>
       <c r="X900" s="8"/>
@@ -38995,7 +38995,7 @@
     </row>
     <row r="901" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H901" s="68" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="I901" s="36" t="s">
         <v>27</v>
@@ -39030,7 +39030,7 @@
     </row>
     <row r="902" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H902" s="56" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="I902" s="36" t="s">
         <v>27</v>
@@ -39058,13 +39058,13 @@
       <c r="Q902" s="7"/>
       <c r="R902" s="7"/>
       <c r="S902" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T902" s="7" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="U902" s="61" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="V902" s="40"/>
       <c r="W902" s="8"/>
@@ -39073,10 +39073,10 @@
     </row>
     <row r="903" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D903" s="54" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="H903" s="56" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="I903" s="36" t="s">
         <v>27</v>
@@ -39179,7 +39179,7 @@
       <c r="T905" s="7"/>
       <c r="U905" s="7"/>
       <c r="V905" s="16" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="W905" s="8"/>
       <c r="X905" s="8"/>
@@ -39289,7 +39289,7 @@
     </row>
     <row r="909" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H909" s="68" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="I909" s="36" t="s">
         <v>27</v>
@@ -39326,7 +39326,7 @@
     </row>
     <row r="910" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H910" s="56" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="I910" s="36" t="s">
         <v>27</v>
@@ -39363,7 +39363,7 @@
     </row>
     <row r="911" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H911" s="56" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="I911" s="36" t="s">
         <v>27</v>
@@ -39399,7 +39399,7 @@
     </row>
     <row r="912" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H912" s="56" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="I912" s="36" t="s">
         <v>27</v>
@@ -39435,7 +39435,7 @@
     </row>
     <row r="913" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H913" s="56" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="I913" s="36" t="s">
         <v>27</v>
@@ -39464,7 +39464,7 @@
       <c r="S913" s="7"/>
       <c r="T913" s="7"/>
       <c r="U913" s="7" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="V913" s="40"/>
       <c r="W913" s="8"/>
@@ -39473,7 +39473,7 @@
     </row>
     <row r="914" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H914" s="56" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="I914" s="36" t="s">
         <v>27</v>
@@ -39506,7 +39506,7 @@
       <c r="T914" s="7"/>
       <c r="U914" s="7"/>
       <c r="V914" s="16" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="W914" s="8"/>
       <c r="X914" s="8"/>
@@ -39514,7 +39514,7 @@
     </row>
     <row r="915" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H915" s="56" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="I915" s="36" t="s">
         <v>27</v>
@@ -39550,7 +39550,7 @@
     </row>
     <row r="916" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H916" s="56" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="I916" s="36" t="s">
         <v>27</v>
@@ -39586,7 +39586,7 @@
     </row>
     <row r="917" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H917" s="56" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="I917" s="36" t="s">
         <v>27</v>
@@ -39622,7 +39622,7 @@
     </row>
     <row r="918" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H918" s="56" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="I918" s="36" t="s">
         <v>27</v>
@@ -39654,7 +39654,7 @@
       <c r="T918" s="7"/>
       <c r="U918" s="7"/>
       <c r="V918" s="58" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="W918" s="8"/>
       <c r="X918" s="8"/>
@@ -39894,7 +39894,7 @@
       <c r="T925" s="7"/>
       <c r="U925" s="7"/>
       <c r="V925" s="16" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="W925" s="8"/>
       <c r="X925" s="8"/>
@@ -40136,7 +40136,7 @@
       <c r="T932" s="7"/>
       <c r="U932" s="7"/>
       <c r="V932" s="40" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="W932" s="8"/>
       <c r="X932" s="8"/>
@@ -40307,7 +40307,7 @@
       <c r="T937" s="7"/>
       <c r="U937" s="7"/>
       <c r="V937" s="16" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="W937" s="8"/>
       <c r="X937" s="8"/>
@@ -40333,7 +40333,7 @@
         <v>38</v>
       </c>
       <c r="N938" s="16" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="O938" s="7" t="s">
         <v>1</v>
@@ -40413,7 +40413,7 @@
       <c r="T940" s="7"/>
       <c r="U940" s="7"/>
       <c r="V940" s="60" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="W940" s="8"/>
       <c r="X940" s="8"/>
@@ -40546,7 +40546,7 @@
       <c r="S944" s="7"/>
       <c r="T944" s="7"/>
       <c r="U944" s="7" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="V944" s="40"/>
       <c r="W944" s="8"/>
@@ -40585,7 +40585,7 @@
       <c r="T945" s="7"/>
       <c r="U945" s="7"/>
       <c r="V945" s="16" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="W945" s="8"/>
       <c r="X945" s="8"/>
@@ -40623,7 +40623,7 @@
       <c r="T946" s="7"/>
       <c r="U946" s="7"/>
       <c r="V946" s="16" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="W946" s="8"/>
       <c r="X946" s="8"/>
@@ -40760,7 +40760,7 @@
       <c r="S950" s="7"/>
       <c r="T950" s="7"/>
       <c r="U950" s="7" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="V950" s="40"/>
       <c r="W950" s="8"/>
@@ -40800,7 +40800,7 @@
       <c r="T951" s="7"/>
       <c r="U951" s="7"/>
       <c r="V951" s="16" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="W951" s="8"/>
       <c r="X951" s="8"/>
@@ -40808,10 +40808,10 @@
     </row>
     <row r="952" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D952" s="71" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="H952" s="68" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="I952" s="36" t="s">
         <v>26</v>
@@ -40839,7 +40839,7 @@
       <c r="Q952" s="7"/>
       <c r="R952" s="7"/>
       <c r="S952" s="7" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="T952" s="7"/>
       <c r="U952" s="7"/>
@@ -40850,7 +40850,7 @@
     </row>
     <row r="953" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H953" s="56" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="I953" s="36" t="s">
         <v>26</v>
@@ -40887,7 +40887,7 @@
     </row>
     <row r="954" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H954" s="56" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="I954" s="36" t="s">
         <v>26</v>
@@ -40924,7 +40924,7 @@
     </row>
     <row r="955" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H955" s="56" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="I955" s="36" t="s">
         <v>26</v>
@@ -40961,7 +40961,7 @@
     </row>
     <row r="956" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H956" s="56" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="I956" s="36" t="s">
         <v>26</v>
@@ -40998,7 +40998,7 @@
     </row>
     <row r="957" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H957" s="56" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="I957" s="36" t="s">
         <v>26</v>
@@ -41026,10 +41026,10 @@
       <c r="Q957" s="7"/>
       <c r="R957" s="7"/>
       <c r="S957" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="T957" s="7" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="U957" s="7"/>
       <c r="V957" s="40"/>
@@ -41039,7 +41039,7 @@
     </row>
     <row r="958" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H958" s="56" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="I958" s="36" t="s">
         <v>26</v>
@@ -41106,7 +41106,7 @@
       <c r="T959" s="7"/>
       <c r="U959" s="7"/>
       <c r="V959" s="16" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="W959" s="8"/>
       <c r="X959" s="8"/>
@@ -41212,7 +41212,7 @@
       <c r="T962" s="7"/>
       <c r="U962" s="7"/>
       <c r="V962" s="40" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="W962" s="8"/>
       <c r="X962" s="8"/>
@@ -41452,8 +41452,8 @@
       <c r="S969" s="7"/>
       <c r="T969" s="7"/>
       <c r="U969" s="7"/>
-      <c r="V969" s="16" t="s">
-        <v>760</v>
+      <c r="V969" s="18" t="s">
+        <v>924</v>
       </c>
       <c r="W969" s="8"/>
       <c r="X969" s="8"/>
@@ -41660,7 +41660,7 @@
       <c r="T975" s="7"/>
       <c r="U975" s="7"/>
       <c r="V975" s="16" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="W975" s="8"/>
       <c r="X975" s="8"/>
@@ -41702,7 +41702,7 @@
     </row>
     <row r="977" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H977" s="68" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="I977" s="36" t="s">
         <v>26</v>
@@ -41739,7 +41739,7 @@
     </row>
     <row r="978" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H978" s="56" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="I978" s="36" t="s">
         <v>26</v>
@@ -41776,7 +41776,7 @@
     </row>
     <row r="979" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H979" s="56" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="I979" s="36" t="s">
         <v>26</v>
@@ -41813,7 +41813,7 @@
     </row>
     <row r="980" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H980" s="56" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="I980" s="36" t="s">
         <v>26</v>
@@ -41850,7 +41850,7 @@
     </row>
     <row r="981" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H981" s="56" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="I981" s="36" t="s">
         <v>26</v>
@@ -41886,7 +41886,7 @@
     </row>
     <row r="982" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H982" s="56" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="I982" s="36" t="s">
         <v>26</v>
@@ -41915,7 +41915,7 @@
       <c r="S982" s="7"/>
       <c r="T982" s="7"/>
       <c r="U982" s="7" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="V982" s="40"/>
       <c r="W982" s="8"/>
@@ -41924,7 +41924,7 @@
     </row>
     <row r="983" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H983" s="56" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="I983" s="36" t="s">
         <v>26</v>
@@ -42158,7 +42158,7 @@
       <c r="T989" s="7"/>
       <c r="U989" s="7"/>
       <c r="V989" s="40" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="W989" s="8"/>
       <c r="X989" s="8"/>
@@ -42601,7 +42601,7 @@
       <c r="T1002" s="7"/>
       <c r="U1002" s="7"/>
       <c r="V1002" s="40" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="W1002" s="8"/>
       <c r="X1002" s="8"/>
@@ -43043,7 +43043,7 @@
       <c r="S1015" s="7"/>
       <c r="T1015" s="7"/>
       <c r="U1015" s="7" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="V1015" s="40"/>
       <c r="W1015" s="8"/>
@@ -43082,7 +43082,7 @@
       <c r="T1016" s="7"/>
       <c r="U1016" s="7"/>
       <c r="V1016" s="40" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="W1016" s="8"/>
       <c r="X1016" s="8"/>
@@ -43426,7 +43426,7 @@
       <c r="T1026" s="7"/>
       <c r="U1026" s="7"/>
       <c r="V1026" s="40" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="W1026" s="8"/>
       <c r="X1026" s="8"/>
@@ -43520,7 +43520,7 @@
         <v>129</v>
       </c>
       <c r="N1029" s="44" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="O1029" s="7" t="s">
         <v>0</v>
@@ -43532,7 +43532,7 @@
       <c r="T1029" s="7"/>
       <c r="U1029" s="7"/>
       <c r="V1029" s="18" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="W1029" s="8"/>
       <c r="X1029" s="8"/>
@@ -43604,7 +43604,7 @@
       <c r="T1031" s="7"/>
       <c r="U1031" s="7"/>
       <c r="V1031" s="16" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="W1031" s="8"/>
       <c r="X1031" s="8"/>
@@ -43642,7 +43642,7 @@
       <c r="T1032" s="7"/>
       <c r="U1032" s="7"/>
       <c r="V1032" s="16" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="W1032" s="8"/>
       <c r="X1032" s="8"/>
@@ -43701,7 +43701,7 @@
         <v>134</v>
       </c>
       <c r="N1034" s="16" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="O1034" s="62" t="s">
         <v>16</v>
@@ -43712,10 +43712,10 @@
       <c r="S1034" s="7"/>
       <c r="T1034" s="7"/>
       <c r="U1034" s="7" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="V1034" s="16" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="W1034" s="8"/>
       <c r="X1034" s="8"/>
@@ -43784,10 +43784,10 @@
       <c r="S1036" s="7"/>
       <c r="T1036" s="7"/>
       <c r="U1036" s="7" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="V1036" s="40" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="W1036" s="8"/>
       <c r="X1036" s="8"/>
@@ -43795,10 +43795,10 @@
     </row>
     <row r="1037" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D1037" s="71" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="F1037" s="70" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="I1037" s="36" t="s">
         <v>25</v>
@@ -43825,7 +43825,7 @@
       <c r="Q1037" s="7"/>
       <c r="R1037" s="7"/>
       <c r="S1037" s="7" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="T1037" s="7"/>
       <c r="U1037" s="7"/>
@@ -43836,7 +43836,7 @@
     </row>
     <row r="1038" spans="4:25" x14ac:dyDescent="0.25">
       <c r="F1038" s="57" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="I1038" s="36" t="s">
         <v>25</v>
@@ -43872,7 +43872,7 @@
     </row>
     <row r="1039" spans="4:25" x14ac:dyDescent="0.25">
       <c r="F1039" s="57" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="I1039" s="36" t="s">
         <v>25</v>
@@ -43908,7 +43908,7 @@
     </row>
     <row r="1040" spans="4:25" x14ac:dyDescent="0.25">
       <c r="F1040" s="57" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="I1040" s="36" t="s">
         <v>25</v>
@@ -43940,7 +43940,7 @@
       <c r="S1040" s="7"/>
       <c r="T1040" s="7"/>
       <c r="U1040" s="7" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="V1040" s="40"/>
       <c r="W1040" s="8"/>
@@ -44049,7 +44049,7 @@
     </row>
     <row r="1044" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D1044" s="54" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I1044" s="36" t="s">
         <v>25</v>
@@ -44076,7 +44076,7 @@
       <c r="Q1044" s="7"/>
       <c r="R1044" s="7"/>
       <c r="S1044" s="7" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="T1044" s="7"/>
       <c r="U1044" s="7"/>
@@ -44238,7 +44238,7 @@
         <v>149</v>
       </c>
       <c r="N1049" s="16" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="O1049" s="7" t="s">
         <v>0</v>
@@ -44252,7 +44252,7 @@
       <c r="T1049" s="7"/>
       <c r="U1049" s="7"/>
       <c r="V1049" s="45" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="W1049" s="8"/>
       <c r="X1049" s="8"/>
@@ -44357,7 +44357,7 @@
       <c r="T1052" s="7"/>
       <c r="U1052" s="7"/>
       <c r="V1052" s="40" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="W1052" s="8"/>
       <c r="X1052" s="8"/>
@@ -44559,7 +44559,7 @@
       <c r="T1058" s="7"/>
       <c r="U1058" s="7"/>
       <c r="V1058" s="40" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="W1058" s="8"/>
       <c r="X1058" s="8"/>
@@ -44567,7 +44567,7 @@
     </row>
     <row r="1059" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D1059" s="54" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I1059" s="36" t="s">
         <v>24</v>
@@ -44594,7 +44594,7 @@
       <c r="Q1059" s="7"/>
       <c r="R1059" s="7"/>
       <c r="S1059" s="7" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="T1059" s="7"/>
       <c r="U1059" s="7"/>
@@ -44729,7 +44729,7 @@
       <c r="S1063" s="7"/>
       <c r="T1063" s="7"/>
       <c r="U1063" s="50" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="V1063" s="40"/>
       <c r="W1063" s="8"/>
@@ -44797,7 +44797,7 @@
       <c r="S1065" s="7"/>
       <c r="T1065" s="7"/>
       <c r="U1065" s="7" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="V1065" s="40"/>
       <c r="W1065" s="8"/>
@@ -44904,7 +44904,7 @@
       <c r="T1068" s="7"/>
       <c r="U1068" s="7"/>
       <c r="V1068" s="40" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="W1068" s="8"/>
       <c r="X1068" s="8"/>
@@ -44972,10 +44972,10 @@
       <c r="Q1070" s="7"/>
       <c r="R1070" s="7"/>
       <c r="S1070" s="7" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="T1070" s="7" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="U1070" s="7"/>
       <c r="V1070" s="40"/>
@@ -44985,7 +44985,7 @@
     </row>
     <row r="1071" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H1071" s="68" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="I1071" s="36" t="s">
         <v>24</v>
@@ -45022,7 +45022,7 @@
     </row>
     <row r="1072" spans="4:25" x14ac:dyDescent="0.25">
       <c r="H1072" s="56" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="I1072" s="36" t="s">
         <v>24</v>
@@ -45059,7 +45059,7 @@
     </row>
     <row r="1073" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H1073" s="56" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="I1073" s="36" t="s">
         <v>24</v>
@@ -45196,7 +45196,7 @@
       <c r="T1076" s="7"/>
       <c r="U1076" s="7"/>
       <c r="V1076" s="16" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="W1076" s="8"/>
       <c r="X1076" s="8"/>
@@ -45236,7 +45236,7 @@
       <c r="T1077" s="7"/>
       <c r="U1077" s="7"/>
       <c r="V1077" s="16" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="W1077" s="8"/>
       <c r="X1077" s="8"/>
@@ -45344,7 +45344,7 @@
       <c r="T1080" s="7"/>
       <c r="U1080" s="7"/>
       <c r="V1080" s="16" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="W1080" s="8"/>
       <c r="X1080" s="8"/>
@@ -45513,7 +45513,7 @@
       <c r="T1085" s="7"/>
       <c r="U1085" s="7"/>
       <c r="V1085" s="40" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="W1085" s="8"/>
       <c r="X1085" s="8"/>
@@ -45551,7 +45551,7 @@
       <c r="T1086" s="7"/>
       <c r="U1086" s="7"/>
       <c r="V1086" s="16" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="W1086" s="8"/>
       <c r="X1086" s="8"/>
@@ -45589,7 +45589,7 @@
       <c r="T1087" s="7"/>
       <c r="U1087" s="7"/>
       <c r="V1087" s="16" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="W1087" s="8"/>
       <c r="X1087" s="8"/>
@@ -45730,7 +45730,7 @@
       <c r="T1091" s="7"/>
       <c r="U1091" s="7"/>
       <c r="V1091" s="40" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="W1091" s="8"/>
       <c r="X1091" s="8"/>
@@ -45867,7 +45867,7 @@
       <c r="T1095" s="7"/>
       <c r="U1095" s="7"/>
       <c r="V1095" s="16" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="W1095" s="8"/>
       <c r="X1095" s="8"/>
@@ -46143,7 +46143,7 @@
       <c r="T1103" s="7"/>
       <c r="U1103" s="7"/>
       <c r="V1103" s="51" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="W1103" s="8"/>
       <c r="X1103" s="8"/>
@@ -46181,7 +46181,7 @@
       <c r="T1104" s="7"/>
       <c r="U1104" s="7"/>
       <c r="V1104" s="16" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="W1104" s="8"/>
       <c r="X1104" s="8"/>
@@ -46219,7 +46219,7 @@
       <c r="T1105" s="7"/>
       <c r="U1105" s="7"/>
       <c r="V1105" s="16" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="W1105" s="8"/>
       <c r="X1105" s="8"/>
@@ -46320,7 +46320,7 @@
       <c r="S1108" s="7"/>
       <c r="T1108" s="7"/>
       <c r="U1108" s="7" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="V1108" s="40"/>
       <c r="W1108" s="8"/>
@@ -46673,7 +46673,7 @@
       <c r="T1118" s="7"/>
       <c r="U1118" s="7"/>
       <c r="V1118" s="40" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="W1118" s="8"/>
       <c r="X1118" s="8"/>
@@ -46745,7 +46745,7 @@
       <c r="T1120" s="7"/>
       <c r="U1120" s="7"/>
       <c r="V1120" s="16" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="W1120" s="8"/>
       <c r="X1120" s="8"/>
@@ -46852,7 +46852,7 @@
       <c r="T1123" s="7"/>
       <c r="U1123" s="7"/>
       <c r="V1123" s="40" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="W1123" s="8"/>
       <c r="X1123" s="8"/>
@@ -47064,7 +47064,7 @@
       <c r="T1129" s="7"/>
       <c r="U1129" s="7"/>
       <c r="V1129" s="40" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="W1129" s="8"/>
       <c r="X1129" s="8"/>
@@ -47275,7 +47275,7 @@
       <c r="T1135" s="7"/>
       <c r="U1135" s="7"/>
       <c r="V1135" s="58" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="W1135" s="8"/>
       <c r="X1135" s="8"/>
@@ -47347,7 +47347,7 @@
       <c r="T1137" s="7"/>
       <c r="U1137" s="7"/>
       <c r="V1137" s="16" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="W1137" s="8"/>
       <c r="X1137" s="8"/>
@@ -47455,7 +47455,7 @@
       <c r="T1140" s="7"/>
       <c r="U1140" s="7"/>
       <c r="V1140" s="40" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="W1140" s="8"/>
       <c r="X1140" s="8"/>
@@ -47665,7 +47665,7 @@
       <c r="T1146" s="7"/>
       <c r="U1146" s="7"/>
       <c r="V1146" s="40" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="W1146" s="8"/>
       <c r="X1146" s="8"/>
@@ -47703,7 +47703,7 @@
       <c r="T1147" s="7"/>
       <c r="U1147" s="7"/>
       <c r="V1147" s="16" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="W1147" s="8"/>
       <c r="X1147" s="8"/>
@@ -47741,7 +47741,7 @@
       <c r="T1148" s="7"/>
       <c r="U1148" s="7"/>
       <c r="V1148" s="16" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="W1148" s="8"/>
       <c r="X1148" s="8"/>
@@ -47847,7 +47847,7 @@
       <c r="T1151" s="7"/>
       <c r="U1151" s="7"/>
       <c r="V1151" s="40" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="W1151" s="8"/>
       <c r="X1151" s="8"/>
@@ -47885,7 +47885,7 @@
       <c r="T1152" s="7"/>
       <c r="U1152" s="7"/>
       <c r="V1152" s="16" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="W1152" s="8"/>
       <c r="X1152" s="8"/>
@@ -47923,7 +47923,7 @@
       <c r="S1153" s="7"/>
       <c r="T1153" s="7"/>
       <c r="V1153" s="16" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="W1153" s="8"/>
       <c r="X1153" s="8"/>
@@ -48032,7 +48032,7 @@
       <c r="T1156" s="7"/>
       <c r="U1156" s="7"/>
       <c r="V1156" s="16" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="W1156" s="8"/>
       <c r="X1156" s="8"/>
@@ -48172,7 +48172,7 @@
       <c r="T1160" s="7"/>
       <c r="U1160" s="7"/>
       <c r="V1160" s="16" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="W1160" s="8"/>
       <c r="X1160" s="8"/>
@@ -48212,7 +48212,7 @@
       <c r="T1161" s="7"/>
       <c r="U1161" s="7"/>
       <c r="V1161" s="16" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="W1161" s="8"/>
       <c r="X1161" s="8"/>
@@ -48304,7 +48304,7 @@
         <v>35</v>
       </c>
       <c r="N1164" s="16" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="O1164" s="7" t="s">
         <v>0</v>
@@ -48316,7 +48316,7 @@
       <c r="T1164" s="7"/>
       <c r="U1164" s="7"/>
       <c r="V1164" s="16" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="W1164" s="8"/>
       <c r="X1164" s="8"/>
@@ -48354,7 +48354,7 @@
       <c r="T1165" s="7"/>
       <c r="U1165" s="7"/>
       <c r="V1165" s="16" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="W1165" s="8"/>
       <c r="X1165" s="8"/>
@@ -48391,7 +48391,7 @@
       <c r="S1166" s="7"/>
       <c r="T1166" s="7"/>
       <c r="V1166" s="40" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="W1166" s="8"/>
       <c r="X1166" s="8"/>
@@ -48433,7 +48433,7 @@
     </row>
     <row r="1168" spans="4:25" x14ac:dyDescent="0.25">
       <c r="D1168" s="71" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="H1168" s="32"/>
       <c r="I1168" s="36" t="s">
@@ -48463,7 +48463,7 @@
       <c r="S1168" s="7"/>
       <c r="T1168" s="7"/>
       <c r="U1168" s="7" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="V1168" s="40"/>
       <c r="W1168" s="8"/>
@@ -48502,7 +48502,7 @@
       <c r="T1169" s="7"/>
       <c r="U1169" s="7"/>
       <c r="V1169" s="51" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="W1169" s="8"/>
       <c r="X1169" s="8"/>
@@ -48605,7 +48605,7 @@
       <c r="T1172" s="7"/>
       <c r="U1172" s="7"/>
       <c r="V1172" s="40" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="W1172" s="8"/>
       <c r="X1172" s="8"/>
@@ -48709,7 +48709,7 @@
       <c r="T1175" s="7"/>
       <c r="U1175" s="7"/>
       <c r="V1175" s="16" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="W1175" s="8"/>
       <c r="X1175" s="8"/>
@@ -48779,7 +48779,7 @@
       <c r="T1177" s="7"/>
       <c r="U1177" s="7"/>
       <c r="V1177" s="40" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="W1177" s="8"/>
       <c r="X1177" s="8"/>
@@ -48870,7 +48870,7 @@
         <v>51</v>
       </c>
       <c r="N1180" s="16" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="O1180" s="7" t="s">
         <v>0</v>
@@ -48882,7 +48882,7 @@
       <c r="T1180" s="7"/>
       <c r="U1180" s="7"/>
       <c r="V1180" s="16" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="W1180" s="8"/>
       <c r="X1180" s="8"/>
@@ -48920,7 +48920,7 @@
       <c r="T1181" s="7"/>
       <c r="U1181" s="7"/>
       <c r="V1181" s="16" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="W1181" s="8"/>
       <c r="X1181" s="8"/>
@@ -48960,7 +48960,7 @@
       <c r="T1182" s="7"/>
       <c r="U1182" s="7"/>
       <c r="V1182" s="16" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="W1182" s="8"/>
       <c r="X1182" s="8"/>
@@ -48968,7 +48968,7 @@
     </row>
     <row r="1183" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H1183" s="68" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="I1183" s="36" t="s">
         <v>21</v>
@@ -49005,7 +49005,7 @@
     </row>
     <row r="1184" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H1184" s="56" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="I1184" s="36" t="s">
         <v>21</v>
@@ -49042,7 +49042,7 @@
     </row>
     <row r="1185" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H1185" s="56" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="I1185" s="36" t="s">
         <v>21</v>
@@ -49079,7 +49079,7 @@
     </row>
     <row r="1186" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H1186" s="56" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="I1186" s="36" t="s">
         <v>21</v>
@@ -49115,7 +49115,7 @@
     </row>
     <row r="1187" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H1187" s="56" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="I1187" s="36" t="s">
         <v>21</v>
@@ -49151,7 +49151,7 @@
     </row>
     <row r="1188" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H1188" s="56" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="I1188" s="36" t="s">
         <v>21</v>
@@ -49252,7 +49252,7 @@
       <c r="T1190" s="7"/>
       <c r="U1190" s="7"/>
       <c r="V1190" s="16" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="W1190" s="8"/>
       <c r="X1190" s="8"/>
@@ -49323,7 +49323,7 @@
       <c r="T1192" s="7"/>
       <c r="U1192" s="7"/>
       <c r="V1192" s="16" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="W1192" s="8"/>
       <c r="X1192" s="8"/>
@@ -49429,7 +49429,7 @@
       <c r="T1195" s="7"/>
       <c r="U1195" s="7"/>
       <c r="V1195" s="52" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="W1195" s="8"/>
       <c r="X1195" s="8"/>
@@ -49569,7 +49569,7 @@
     </row>
     <row r="1200" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H1200" s="68" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="I1200" s="36" t="s">
         <v>21</v>
@@ -49605,7 +49605,7 @@
     </row>
     <row r="1201" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H1201" s="56" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="I1201" s="36" t="s">
         <v>21</v>
@@ -49641,7 +49641,7 @@
     </row>
     <row r="1202" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H1202" s="56" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="I1202" s="36" t="s">
         <v>21</v>
@@ -49677,7 +49677,7 @@
     </row>
     <row r="1203" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H1203" s="56" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="I1203" s="36" t="s">
         <v>21</v>
@@ -49713,7 +49713,7 @@
     </row>
     <row r="1204" spans="8:25" x14ac:dyDescent="0.25">
       <c r="H1204" s="56" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="I1204" s="36" t="s">
         <v>21</v>
@@ -49834,7 +49834,7 @@
         <v>78</v>
       </c>
       <c r="N1207" s="16" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="O1207" s="7"/>
       <c r="P1207" s="39"/>
@@ -50240,7 +50240,7 @@
         <v>90</v>
       </c>
       <c r="N1219" s="16" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="P1219" s="39"/>
       <c r="Q1219" s="7"/>
@@ -50785,7 +50785,7 @@
       <c r="T1235" s="7"/>
       <c r="U1235" s="7"/>
       <c r="V1235" s="40" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="W1235" s="8"/>
       <c r="X1235" s="8"/>
